--- a/3_Component_Results/GDP/Data/naive_err/AVERAGE_1_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/GDP/Data/naive_err/AVERAGE_1_9_qoq_errors_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Q0</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>Q7</t>
+  </si>
+  <si>
+    <t>Q8</t>
   </si>
   <si>
     <t>2022-01-01 00:00:00_diff</t>
@@ -440,13 +443,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -471,296 +474,320 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>0.08528554791034348</v>
+        <v>0.2298834519089068</v>
       </c>
       <c r="C2">
-        <v>0.4252855479103435</v>
+        <v>0.3255607007654389</v>
       </c>
       <c r="D2">
-        <v>0.7552855479103435</v>
+        <v>0.06513869270445388</v>
       </c>
       <c r="E2">
-        <v>0.6731635053256353</v>
+        <v>0.9005966785379966</v>
       </c>
       <c r="F2">
-        <v>0.3446377147317632</v>
+        <v>0.8005739094407884</v>
       </c>
       <c r="G2">
-        <v>0.6452855479103434</v>
+        <v>0.4467158494068597</v>
       </c>
       <c r="H2">
-        <v>0.4212855479103435</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>0.5949089188422247</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>0.34</v>
+        <v>0.2402751528550954</v>
       </c>
       <c r="C3">
-        <v>0.6699999999999999</v>
+        <v>-0.0201468552058896</v>
       </c>
       <c r="D3">
-        <v>0.5878779574152918</v>
+        <v>0.815311130627653</v>
       </c>
       <c r="E3">
-        <v>0.2593521668214197</v>
+        <v>0.7152883615304448</v>
       </c>
       <c r="F3">
-        <v>0.5600000000000001</v>
+        <v>0.3614303014965162</v>
       </c>
       <c r="G3">
-        <v>0.336</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>0.5096233709318814</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>0.33</v>
+        <v>-0.3601468552058896</v>
       </c>
       <c r="C4">
-        <v>0.2478779574152918</v>
+        <v>0.4753111306276531</v>
       </c>
       <c r="D4">
-        <v>-0.08064783317858029</v>
+        <v>0.3752883615304449</v>
       </c>
       <c r="E4">
-        <v>0.22</v>
+        <v>0.02143030149651622</v>
       </c>
       <c r="F4">
-        <v>-0.003999999999999997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>0.1696233709318813</v>
+      </c>
+      <c r="G4">
+        <v>0.3270570324401456</v>
+      </c>
+      <c r="H4">
+        <v>-0.1735990538361767</v>
+      </c>
+      <c r="I4">
+        <v>0.10675723343443</v>
+      </c>
+      <c r="J4">
+        <v>-0.06520887812495521</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5">
-        <v>-0.08212204258470818</v>
+        <v>0.1453111306276531</v>
       </c>
       <c r="C5">
-        <v>-0.4106478331785803</v>
+        <v>0.04528836153044491</v>
       </c>
       <c r="D5">
-        <v>-0.11</v>
+        <v>-0.3085696985034838</v>
       </c>
       <c r="E5">
-        <v>-0.334</v>
+        <v>-0.1603766290681187</v>
       </c>
       <c r="F5">
-        <v>-0.2074899595364962</v>
+        <v>-0.002942967559854404</v>
       </c>
       <c r="G5">
-        <v>-0.5482525219575302</v>
+        <v>-0.5035990538361766</v>
       </c>
       <c r="H5">
-        <v>-0.2428244747750563</v>
+        <v>-0.22324276656557</v>
       </c>
       <c r="I5">
-        <v>-0.5042297805489477</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>-0.3952088781249552</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>-0.3285257905938721</v>
+        <v>0.1274104041151531</v>
       </c>
       <c r="C6">
-        <v>-0.02787795741529181</v>
+        <v>-0.2264476559187756</v>
       </c>
       <c r="D6">
-        <v>-0.2518779574152918</v>
+        <v>-0.07825458648341049</v>
       </c>
       <c r="E6">
-        <v>-0.1253679169517881</v>
+        <v>0.07917907502485377</v>
       </c>
       <c r="F6">
-        <v>-0.466130479372822</v>
+        <v>-0.4214770112514685</v>
       </c>
       <c r="G6">
-        <v>-0.1607024321903481</v>
+        <v>-0.1411207239808618</v>
       </c>
       <c r="H6">
-        <v>-0.4221077379642395</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>-0.313086835540247</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>0.3006478331785803</v>
+        <v>0.1020781346750965</v>
       </c>
       <c r="C7">
-        <v>0.0766478331785803</v>
+        <v>0.2502712041104616</v>
       </c>
       <c r="D7">
-        <v>0.203157873642084</v>
+        <v>0.4077048656187259</v>
       </c>
       <c r="E7">
-        <v>-0.1376046887789499</v>
+        <v>-0.0929512206575964</v>
       </c>
       <c r="F7">
-        <v>0.167823358403524</v>
+        <v>0.1874050666130103</v>
       </c>
       <c r="G7">
-        <v>-0.0935819473703674</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>0.01543895505362509</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.224</v>
+        <v>-0.05037662906811868</v>
       </c>
       <c r="C8">
-        <v>-0.09748995953649625</v>
+        <v>0.1070570324401456</v>
       </c>
       <c r="D8">
-        <v>-0.4382525219575302</v>
+        <v>-0.3935990538361767</v>
       </c>
       <c r="E8">
-        <v>-0.1328244747750563</v>
+        <v>-0.11324276656557</v>
       </c>
       <c r="F8">
-        <v>-0.3942297805489477</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>-0.2852088781249552</v>
+      </c>
+      <c r="G8">
+        <v>0.02053824020493492</v>
+      </c>
+      <c r="H8">
+        <v>-0.5916519254275203</v>
+      </c>
+      <c r="I8">
+        <v>0.09668430691196023</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>0.1265100404635037</v>
+        <v>0.3310570324401456</v>
       </c>
       <c r="C9">
-        <v>-0.2142525219575302</v>
+        <v>-0.1695990538361767</v>
       </c>
       <c r="D9">
-        <v>0.09117552522494374</v>
+        <v>0.11075723343443</v>
       </c>
       <c r="E9">
-        <v>-0.1702297805489477</v>
+        <v>-0.06120887812495521</v>
       </c>
       <c r="F9">
-        <v>-0.1954371574146135</v>
+        <v>0.2445382402049349</v>
       </c>
       <c r="G9">
-        <v>-0.003178834183043253</v>
+        <v>-0.3676519254275204</v>
       </c>
       <c r="H9">
-        <v>-0.0519495356205764</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>0.3206843069119602</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>-0.3407625624210339</v>
+        <v>-0.2961090942996805</v>
       </c>
       <c r="C10">
-        <v>-0.03533451523856001</v>
+        <v>-0.01575280702907378</v>
       </c>
       <c r="D10">
-        <v>-0.2967398210124514</v>
+        <v>-0.187718918588459</v>
       </c>
       <c r="E10">
-        <v>-0.3219471978781172</v>
+        <v>0.1180281997414312</v>
       </c>
       <c r="F10">
-        <v>-0.129688874646547</v>
+        <v>-0.4941619658910241</v>
       </c>
       <c r="G10">
-        <v>-0.1784595760840801</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>0.1941742664484565</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>0.3054280471824739</v>
+        <v>0.3250097553919601</v>
       </c>
       <c r="C11">
-        <v>0.04402274140858248</v>
+        <v>0.153043643832575</v>
       </c>
       <c r="D11">
-        <v>0.01881536454291668</v>
+        <v>0.4587907621624651</v>
       </c>
       <c r="E11">
-        <v>0.2110736877744869</v>
+        <v>-0.1533994034699902</v>
       </c>
       <c r="F11">
-        <v>0.1623029863369538</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>0.5349368288694905</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>-0.2614053057738914</v>
+        <v>-0.1523844033498989</v>
       </c>
       <c r="C12">
-        <v>-0.2866126826395572</v>
+        <v>0.1533627149799912</v>
       </c>
       <c r="D12">
-        <v>-0.09435435940798698</v>
+        <v>-0.4588274506524641</v>
       </c>
       <c r="E12">
-        <v>-0.1431250608455201</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>0.2295087816870165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>-0.02520737686566579</v>
+        <v>0.4147680207538826</v>
       </c>
       <c r="C13">
-        <v>0.1670509463659045</v>
+        <v>-0.1974221448785727</v>
       </c>
       <c r="D13">
-        <v>0.1182802449283713</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>0.4909140874609079</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>0.1922583232315702</v>
+        <v>-0.1722147680129069</v>
       </c>
       <c r="C14">
-        <v>0.1434876217940371</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>0.5161214643265737</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15">
-        <v>-0.04877070143753315</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>0.3238631410950035</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/GDP/Data/naive_err/AVERAGE_1_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/GDP/Data/naive_err/AVERAGE_1_9_qoq_errors_first_eval.xlsx
@@ -483,25 +483,25 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>0.2298834519089068</v>
+        <v>0.08528554791034348</v>
       </c>
       <c r="C2">
-        <v>0.3255607007654389</v>
+        <v>0.4252855479103435</v>
       </c>
       <c r="D2">
-        <v>0.06513869270445388</v>
+        <v>0.7552855479103435</v>
       </c>
       <c r="E2">
-        <v>0.9005966785379966</v>
+        <v>0.6731635053256353</v>
       </c>
       <c r="F2">
-        <v>0.8005739094407884</v>
+        <v>0.3446377147317632</v>
       </c>
       <c r="G2">
-        <v>0.4467158494068597</v>
+        <v>0.6452855479103434</v>
       </c>
       <c r="H2">
-        <v>0.5949089188422247</v>
+        <v>0.4212855479103435</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -509,22 +509,22 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>0.2402751528550954</v>
+        <v>0.34</v>
       </c>
       <c r="C3">
-        <v>-0.0201468552058896</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="D3">
-        <v>0.815311130627653</v>
+        <v>0.5878779574152918</v>
       </c>
       <c r="E3">
-        <v>0.7152883615304448</v>
+        <v>0.2593521668214197</v>
       </c>
       <c r="F3">
-        <v>0.3614303014965162</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G3">
-        <v>0.5096233709318814</v>
+        <v>0.336</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -532,31 +532,31 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>-0.3601468552058896</v>
+        <v>0.33</v>
       </c>
       <c r="C4">
-        <v>0.4753111306276531</v>
+        <v>0.2478779574152918</v>
       </c>
       <c r="D4">
-        <v>0.3752883615304449</v>
+        <v>-0.08064783317858029</v>
       </c>
       <c r="E4">
-        <v>0.02143030149651622</v>
+        <v>0.22</v>
       </c>
       <c r="F4">
-        <v>0.1696233709318813</v>
+        <v>-0.003999999999999997</v>
       </c>
       <c r="G4">
-        <v>0.3270570324401456</v>
+        <v>0.1225100404635037</v>
       </c>
       <c r="H4">
-        <v>-0.1735990538361767</v>
+        <v>-0.2182525219575302</v>
       </c>
       <c r="I4">
-        <v>0.10675723343443</v>
+        <v>0.08717552522494373</v>
       </c>
       <c r="J4">
-        <v>-0.06520887812495521</v>
+        <v>-0.1742297805489477</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -564,28 +564,28 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>0.1453111306276531</v>
+        <v>-0.08212204258470818</v>
       </c>
       <c r="C5">
-        <v>0.04528836153044491</v>
+        <v>-0.4106478331785803</v>
       </c>
       <c r="D5">
-        <v>-0.3085696985034838</v>
+        <v>-0.11</v>
       </c>
       <c r="E5">
-        <v>-0.1603766290681187</v>
+        <v>-0.334</v>
       </c>
       <c r="F5">
-        <v>-0.002942967559854404</v>
+        <v>-0.2074899595364962</v>
       </c>
       <c r="G5">
-        <v>-0.5035990538361766</v>
+        <v>-0.5482525219575302</v>
       </c>
       <c r="H5">
-        <v>-0.22324276656557</v>
+        <v>-0.2428244747750563</v>
       </c>
       <c r="I5">
-        <v>-0.3952088781249552</v>
+        <v>-0.5042297805489477</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -593,25 +593,25 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>0.1274104041151531</v>
+        <v>-0.3285257905938721</v>
       </c>
       <c r="C6">
-        <v>-0.2264476559187756</v>
+        <v>-0.02787795741529181</v>
       </c>
       <c r="D6">
-        <v>-0.07825458648341049</v>
+        <v>-0.2518779574152918</v>
       </c>
       <c r="E6">
-        <v>0.07917907502485377</v>
+        <v>-0.1253679169517881</v>
       </c>
       <c r="F6">
-        <v>-0.4214770112514685</v>
+        <v>-0.466130479372822</v>
       </c>
       <c r="G6">
-        <v>-0.1411207239808618</v>
+        <v>-0.1607024321903481</v>
       </c>
       <c r="H6">
-        <v>-0.313086835540247</v>
+        <v>-0.4221077379642395</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -619,22 +619,22 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>0.1020781346750965</v>
+        <v>0.3006478331785803</v>
       </c>
       <c r="C7">
-        <v>0.2502712041104616</v>
+        <v>0.0766478331785803</v>
       </c>
       <c r="D7">
-        <v>0.4077048656187259</v>
+        <v>0.203157873642084</v>
       </c>
       <c r="E7">
-        <v>-0.0929512206575964</v>
+        <v>-0.1376046887789499</v>
       </c>
       <c r="F7">
-        <v>0.1874050666130103</v>
+        <v>0.167823358403524</v>
       </c>
       <c r="G7">
-        <v>0.01543895505362509</v>
+        <v>-0.0935819473703674</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -642,28 +642,28 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.05037662906811868</v>
+        <v>-0.224</v>
       </c>
       <c r="C8">
-        <v>0.1070570324401456</v>
+        <v>-0.09748995953649625</v>
       </c>
       <c r="D8">
-        <v>-0.3935990538361767</v>
+        <v>-0.4382525219575302</v>
       </c>
       <c r="E8">
-        <v>-0.11324276656557</v>
+        <v>-0.1328244747750563</v>
       </c>
       <c r="F8">
-        <v>-0.2852088781249552</v>
+        <v>-0.3942297805489477</v>
       </c>
       <c r="G8">
-        <v>0.02053824020493492</v>
+        <v>-0.4194371574146135</v>
       </c>
       <c r="H8">
-        <v>-0.5916519254275203</v>
+        <v>-0.2271788341830432</v>
       </c>
       <c r="I8">
-        <v>0.09668430691196023</v>
+        <v>-0.2759495356205764</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -671,25 +671,25 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>0.3310570324401456</v>
+        <v>0.1265100404635037</v>
       </c>
       <c r="C9">
-        <v>-0.1695990538361767</v>
+        <v>-0.2142525219575302</v>
       </c>
       <c r="D9">
-        <v>0.11075723343443</v>
+        <v>0.09117552522494374</v>
       </c>
       <c r="E9">
-        <v>-0.06120887812495521</v>
+        <v>-0.1702297805489477</v>
       </c>
       <c r="F9">
-        <v>0.2445382402049349</v>
+        <v>-0.1954371574146135</v>
       </c>
       <c r="G9">
-        <v>-0.3676519254275204</v>
+        <v>-0.003178834183043253</v>
       </c>
       <c r="H9">
-        <v>0.3206843069119602</v>
+        <v>-0.0519495356205764</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -697,22 +697,22 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>-0.2961090942996805</v>
+        <v>-0.3407625624210339</v>
       </c>
       <c r="C10">
-        <v>-0.01575280702907378</v>
+        <v>-0.03533451523856001</v>
       </c>
       <c r="D10">
-        <v>-0.187718918588459</v>
+        <v>-0.2967398210124514</v>
       </c>
       <c r="E10">
-        <v>0.1180281997414312</v>
+        <v>-0.3219471978781172</v>
       </c>
       <c r="F10">
-        <v>-0.4941619658910241</v>
+        <v>-0.129688874646547</v>
       </c>
       <c r="G10">
-        <v>0.1941742664484565</v>
+        <v>-0.1784595760840801</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -720,19 +720,19 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>0.3250097553919601</v>
+        <v>0.3054280471824739</v>
       </c>
       <c r="C11">
-        <v>0.153043643832575</v>
+        <v>0.04402274140858248</v>
       </c>
       <c r="D11">
-        <v>0.4587907621624651</v>
+        <v>0.01881536454291668</v>
       </c>
       <c r="E11">
-        <v>-0.1533994034699902</v>
+        <v>0.2110736877744869</v>
       </c>
       <c r="F11">
-        <v>0.5349368288694905</v>
+        <v>0.1623029863369538</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -740,16 +740,16 @@
         <v>19</v>
       </c>
       <c r="B12">
-        <v>-0.1523844033498989</v>
+        <v>-0.2614053057738914</v>
       </c>
       <c r="C12">
-        <v>0.1533627149799912</v>
+        <v>-0.2866126826395572</v>
       </c>
       <c r="D12">
-        <v>-0.4588274506524641</v>
+        <v>-0.09435435940798698</v>
       </c>
       <c r="E12">
-        <v>0.2295087816870165</v>
+        <v>-0.1431250608455201</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -757,13 +757,13 @@
         <v>20</v>
       </c>
       <c r="B13">
-        <v>0.4147680207538826</v>
+        <v>-0.02520737686566579</v>
       </c>
       <c r="C13">
-        <v>-0.1974221448785727</v>
+        <v>0.1670509463659045</v>
       </c>
       <c r="D13">
-        <v>0.4909140874609079</v>
+        <v>0.1182802449283713</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -771,10 +771,10 @@
         <v>21</v>
       </c>
       <c r="B14">
-        <v>-0.1722147680129069</v>
+        <v>0.1922583232315702</v>
       </c>
       <c r="C14">
-        <v>0.5161214643265737</v>
+        <v>0.1434876217940371</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -782,7 +782,7 @@
         <v>22</v>
       </c>
       <c r="B15">
-        <v>0.3238631410950035</v>
+        <v>-0.04877070143753315</v>
       </c>
     </row>
     <row r="16" spans="1:10">

--- a/3_Component_Results/GDP/Data/naive_err/AVERAGE_1_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/GDP/Data/naive_err/AVERAGE_1_9_qoq_errors_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Q0</t>
   </si>
@@ -41,6 +41,120 @@
   </si>
   <si>
     <t>Q8</t>
+  </si>
+  <si>
+    <t>Q9</t>
+  </si>
+  <si>
+    <t>2007-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2008-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2008-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2009-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2009-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2010-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2010-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2011-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2011-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2012-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2012-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2013-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2013-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2014-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2014-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2015-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2015-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2016-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2016-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2017-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2017-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-10-01 00:00:00_diff</t>
   </si>
   <si>
     <t>2022-01-01 00:00:00_diff</t>
@@ -443,13 +557,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -477,317 +591,1663 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2">
+        <v>-0.8445728074725023</v>
+      </c>
+      <c r="C2">
+        <v>1.106635999598907</v>
+      </c>
+      <c r="D2">
+        <v>1.207881712040546</v>
+      </c>
+      <c r="E2">
+        <v>2.909537472365884</v>
+      </c>
+      <c r="F2">
+        <v>4.484237271275873</v>
+      </c>
+      <c r="G2">
+        <v>0.2408662136045904</v>
+      </c>
+      <c r="H2">
+        <v>-0.0445653876890475</v>
+      </c>
+      <c r="I2">
+        <v>0.5028049249471138</v>
+      </c>
+      <c r="J2">
+        <v>0.5221204707982281</v>
+      </c>
+      <c r="K2">
+        <v>-1.616527972633821</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>2.052454519513049</v>
+      </c>
+      <c r="C3">
+        <v>3.754110279838386</v>
+      </c>
+      <c r="D3">
+        <v>5.328810078748375</v>
+      </c>
+      <c r="E3">
+        <v>1.085439021077093</v>
+      </c>
+      <c r="F3">
+        <v>0.8000074197834548</v>
+      </c>
+      <c r="G3">
+        <v>1.347377732419616</v>
+      </c>
+      <c r="H3">
+        <v>1.36669327827073</v>
+      </c>
+      <c r="I3">
+        <v>-0.7719551651613188</v>
+      </c>
+      <c r="J3">
+        <v>0.8280448348386811</v>
+      </c>
+      <c r="K3">
+        <v>1.163280553332441</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>3.276355559235327</v>
+      </c>
+      <c r="C4">
+        <v>-0.9670154984359556</v>
+      </c>
+      <c r="D4">
+        <v>-1.252447099729594</v>
+      </c>
+      <c r="E4">
+        <v>-0.7050767870934322</v>
+      </c>
+      <c r="F4">
+        <v>-0.685761241242318</v>
+      </c>
+      <c r="G4">
+        <v>-2.824409684674367</v>
+      </c>
+      <c r="H4">
+        <v>-1.224409684674367</v>
+      </c>
+      <c r="I4">
+        <v>-0.8891739661806071</v>
+      </c>
+      <c r="J4">
+        <v>-2.024409684674367</v>
+      </c>
+      <c r="K4">
+        <v>-0.8244096846743674</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>-4.528802658964921</v>
+      </c>
+      <c r="C5">
+        <v>-3.981432346328759</v>
+      </c>
+      <c r="D5">
+        <v>-3.962116800477645</v>
+      </c>
+      <c r="E5">
+        <v>-6.100765243909693</v>
+      </c>
+      <c r="F5">
+        <v>-4.500765243909694</v>
+      </c>
+      <c r="G5">
+        <v>-4.165529525415933</v>
+      </c>
+      <c r="H5">
+        <v>-5.300765243909694</v>
+      </c>
+      <c r="I5">
+        <v>-4.100765243909694</v>
+      </c>
+      <c r="J5">
+        <v>-4.300765243909694</v>
+      </c>
+      <c r="K5">
+        <v>-3.618899848111766</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>0.5666858584872756</v>
+      </c>
+      <c r="C6">
+        <v>-1.571962584944774</v>
+      </c>
+      <c r="D6">
+        <v>0.02803741505522628</v>
+      </c>
+      <c r="E6">
+        <v>0.3632731335489865</v>
+      </c>
+      <c r="F6">
+        <v>-0.7719625849447738</v>
+      </c>
+      <c r="G6">
+        <v>0.4280374150552262</v>
+      </c>
+      <c r="H6">
+        <v>0.2280374150552262</v>
+      </c>
+      <c r="I6">
+        <v>0.9099028108531542</v>
+      </c>
+      <c r="J6">
+        <v>0.2280374150552262</v>
+      </c>
+      <c r="K6">
+        <v>0.4280374150552262</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>-0.5386484434320493</v>
+      </c>
+      <c r="C7">
+        <v>-0.2034127249382891</v>
+      </c>
+      <c r="D7">
+        <v>-1.338648443432049</v>
+      </c>
+      <c r="E7">
+        <v>-0.1386484434320494</v>
+      </c>
+      <c r="F7">
+        <v>-0.3386484434320494</v>
+      </c>
+      <c r="G7">
+        <v>0.3432169523658785</v>
+      </c>
+      <c r="H7">
+        <v>-0.3386484434320494</v>
+      </c>
+      <c r="I7">
+        <v>-0.1386484434320494</v>
+      </c>
+      <c r="J7">
+        <v>-0.0386484434320494</v>
+      </c>
+      <c r="K7">
+        <v>0.8526704950438528</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>-0.8</v>
+      </c>
+      <c r="C8">
+        <v>0.4</v>
+      </c>
+      <c r="D8">
+        <v>0.2</v>
+      </c>
+      <c r="E8">
+        <v>0.8818653957979279</v>
+      </c>
+      <c r="F8">
+        <v>0.2</v>
+      </c>
+      <c r="G8">
+        <v>0.4</v>
+      </c>
+      <c r="H8">
+        <v>0.4999999999999999</v>
+      </c>
+      <c r="I8">
+        <v>1.391318938475902</v>
+      </c>
+      <c r="J8">
+        <v>0.6367194630928423</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1.681865395797928</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1.2</v>
+      </c>
+      <c r="F9">
+        <v>1.3</v>
+      </c>
+      <c r="G9">
+        <v>2.191318938475902</v>
+      </c>
+      <c r="H9">
+        <v>1.436719463092842</v>
+      </c>
+      <c r="I9">
+        <v>0.8</v>
+      </c>
+      <c r="J9">
+        <v>1.2</v>
+      </c>
+      <c r="K9">
+        <v>1.116241717278726</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0.2</v>
+      </c>
+      <c r="D10">
+        <v>0.3</v>
+      </c>
+      <c r="E10">
+        <v>1.191318938475902</v>
+      </c>
+      <c r="F10">
+        <v>0.4367194630928424</v>
+      </c>
+      <c r="G10">
+        <v>-0.2</v>
+      </c>
+      <c r="H10">
+        <v>0.2</v>
+      </c>
+      <c r="I10">
+        <v>0.1162417172787258</v>
+      </c>
+      <c r="J10">
+        <v>-0.3179240379891439</v>
+      </c>
+      <c r="K10">
+        <v>0.5850941960705711</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>0.3</v>
+      </c>
+      <c r="C11">
+        <v>1.191318938475902</v>
+      </c>
+      <c r="D11">
+        <v>0.4367194630928424</v>
+      </c>
+      <c r="E11">
+        <v>-0.2</v>
+      </c>
+      <c r="F11">
+        <v>0.2</v>
+      </c>
+      <c r="G11">
+        <v>0.1162417172787258</v>
+      </c>
+      <c r="H11">
+        <v>-0.3179240379891439</v>
+      </c>
+      <c r="I11">
+        <v>0.5850941960705711</v>
+      </c>
+      <c r="J11">
+        <v>0.4337607274278525</v>
+      </c>
+      <c r="K11">
+        <v>-0.199690853462215</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>0.1367194630928424</v>
+      </c>
+      <c r="C12">
+        <v>-0.4999999999999999</v>
+      </c>
+      <c r="D12">
+        <v>-0.09999999999999998</v>
+      </c>
+      <c r="E12">
+        <v>-0.1837582827212742</v>
+      </c>
+      <c r="F12">
+        <v>-0.617924037989144</v>
+      </c>
+      <c r="G12">
+        <v>0.2850941960705711</v>
+      </c>
+      <c r="H12">
+        <v>0.1337607274278526</v>
+      </c>
+      <c r="I12">
+        <v>-0.499690853462215</v>
+      </c>
+      <c r="J12">
+        <v>-0.0723040558628753</v>
+      </c>
+      <c r="K12">
+        <v>-0.2386429368392442</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>-0.2367194630928424</v>
+      </c>
+      <c r="C13">
+        <v>-0.3204777458141166</v>
+      </c>
+      <c r="D13">
+        <v>-0.7546435010819863</v>
+      </c>
+      <c r="E13">
+        <v>0.1483747329777287</v>
+      </c>
+      <c r="F13">
+        <v>-0.002958735664989831</v>
+      </c>
+      <c r="G13">
+        <v>-0.6364103165550574</v>
+      </c>
+      <c r="H13">
+        <v>-0.2090235189557177</v>
+      </c>
+      <c r="I13">
+        <v>-0.3753623999320866</v>
+      </c>
+      <c r="J13">
+        <v>-0.2526440311233529</v>
+      </c>
+      <c r="K13">
+        <v>-0.2054101948793204</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>-0.5179240379891439</v>
+      </c>
+      <c r="C14">
+        <v>0.3850941960705711</v>
+      </c>
+      <c r="D14">
+        <v>0.2337607274278525</v>
+      </c>
+      <c r="E14">
+        <v>-0.3996908534622151</v>
+      </c>
+      <c r="F14">
+        <v>0.02769594413712467</v>
+      </c>
+      <c r="G14">
+        <v>-0.1386429368392442</v>
+      </c>
+      <c r="H14">
+        <v>-0.01592456803051051</v>
+      </c>
+      <c r="I14">
+        <v>0.03130926821352198</v>
+      </c>
+      <c r="J14">
+        <v>-0.3653145667921905</v>
+      </c>
+      <c r="K14">
+        <v>-0.1112540268827303</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>0.7516847654169965</v>
+      </c>
+      <c r="C15">
+        <v>0.1182331845269289</v>
+      </c>
+      <c r="D15">
+        <v>0.5456199821262686</v>
+      </c>
+      <c r="E15">
+        <v>0.3792811011498997</v>
+      </c>
+      <c r="F15">
+        <v>0.5019994699586334</v>
+      </c>
+      <c r="G15">
+        <v>0.549233306202666</v>
+      </c>
+      <c r="H15">
+        <v>0.1526094711969535</v>
+      </c>
+      <c r="I15">
+        <v>0.4066700111064137</v>
+      </c>
+      <c r="J15">
+        <v>0.6267892745121628</v>
+      </c>
+      <c r="K15">
+        <v>0.4001953286979471</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>-0.2060647832907279</v>
+      </c>
+      <c r="C16">
+        <v>-0.3724036642670968</v>
+      </c>
+      <c r="D16">
+        <v>-0.249685295458363</v>
+      </c>
+      <c r="E16">
+        <v>-0.2024514592143306</v>
+      </c>
+      <c r="F16">
+        <v>-0.599075294220043</v>
+      </c>
+      <c r="G16">
+        <v>-0.3450147543105828</v>
+      </c>
+      <c r="H16">
+        <v>-0.1248954909048337</v>
+      </c>
+      <c r="I16">
+        <v>-0.3514894367190494</v>
+      </c>
+      <c r="J16">
+        <v>-0.5396551693377063</v>
+      </c>
+      <c r="K16">
+        <v>-0.5669631475580985</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>-0.04362051216763518</v>
+      </c>
+      <c r="C17">
+        <v>0.003613324076397306</v>
+      </c>
+      <c r="D17">
+        <v>-0.3930105109293152</v>
+      </c>
+      <c r="E17">
+        <v>-0.138949971019855</v>
+      </c>
+      <c r="F17">
+        <v>0.08116929238589421</v>
+      </c>
+      <c r="G17">
+        <v>-0.1454246534283215</v>
+      </c>
+      <c r="H17">
+        <v>-0.3335903860469784</v>
+      </c>
+      <c r="I17">
+        <v>-0.3608983642673707</v>
+      </c>
+      <c r="J17">
+        <v>-0.5518676766958066</v>
+      </c>
+      <c r="K17">
+        <v>-0.3346678565890642</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>-0.34938999876168</v>
+      </c>
+      <c r="C18">
+        <v>-0.09532945885221977</v>
+      </c>
+      <c r="D18">
+        <v>0.1247898045535294</v>
+      </c>
+      <c r="E18">
+        <v>-0.1018041412606863</v>
+      </c>
+      <c r="F18">
+        <v>-0.2899698738793433</v>
+      </c>
+      <c r="G18">
+        <v>-0.3172778520997355</v>
+      </c>
+      <c r="H18">
+        <v>-0.5082471645281714</v>
+      </c>
+      <c r="I18">
+        <v>-0.291047344421429</v>
+      </c>
+      <c r="J18">
+        <v>0.01864531357431082</v>
+      </c>
+      <c r="K18">
+        <v>-0.1356592213437722</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>0.4741798033152094</v>
+      </c>
+      <c r="C19">
+        <v>0.2475858575009937</v>
+      </c>
+      <c r="D19">
+        <v>0.05942012488233672</v>
+      </c>
+      <c r="E19">
+        <v>0.03211214666194451</v>
+      </c>
+      <c r="F19">
+        <v>-0.1588571657664914</v>
+      </c>
+      <c r="G19">
+        <v>0.05834265434025099</v>
+      </c>
+      <c r="H19">
+        <v>0.3680353123359908</v>
+      </c>
+      <c r="I19">
+        <v>0.2137307774179078</v>
+      </c>
+      <c r="J19">
+        <v>0.8653145667921904</v>
+      </c>
+      <c r="K19">
+        <v>0.6479937645449496</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>-0.4147596784328726</v>
+      </c>
+      <c r="C20">
+        <v>-0.4420676566532649</v>
+      </c>
+      <c r="D20">
+        <v>-0.6330369690817008</v>
+      </c>
+      <c r="E20">
+        <v>-0.4158371489749584</v>
+      </c>
+      <c r="F20">
+        <v>-0.1061444909792186</v>
+      </c>
+      <c r="G20">
+        <v>-0.2604490258973016</v>
+      </c>
+      <c r="H20">
+        <v>0.3911347634769811</v>
+      </c>
+      <c r="I20">
+        <v>0.1738139612297402</v>
+      </c>
+      <c r="J20">
+        <v>-0.2088652365230189</v>
+      </c>
+      <c r="K20">
+        <v>0.2658176836659152</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>-0.2182772906488282</v>
+      </c>
+      <c r="C21">
+        <v>-0.001077470542085734</v>
+      </c>
+      <c r="D21">
+        <v>0.3086151874536541</v>
+      </c>
+      <c r="E21">
+        <v>0.1543106525355711</v>
+      </c>
+      <c r="F21">
+        <v>0.8058944419098537</v>
+      </c>
+      <c r="G21">
+        <v>0.5885736396626129</v>
+      </c>
+      <c r="H21">
+        <v>0.2058944419098537</v>
+      </c>
+      <c r="I21">
+        <v>0.6805773620987878</v>
+      </c>
+      <c r="J21">
+        <v>0.5217333406898916</v>
+      </c>
+      <c r="K21">
+        <v>0.5779026100747018</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>0.5268924781024822</v>
+      </c>
+      <c r="C22">
+        <v>0.3725879431843993</v>
+      </c>
+      <c r="D22">
+        <v>1.024171732558682</v>
+      </c>
+      <c r="E22">
+        <v>0.8068509303114411</v>
+      </c>
+      <c r="F22">
+        <v>0.4241717325586819</v>
+      </c>
+      <c r="G22">
+        <v>0.898854652747616</v>
+      </c>
+      <c r="H22">
+        <v>0.7400106313387198</v>
+      </c>
+      <c r="I22">
+        <v>0.79617990072353</v>
+      </c>
+      <c r="J22">
+        <v>3.024171732558682</v>
+      </c>
+      <c r="K22">
+        <v>10.515127244187</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>0.1553881230776568</v>
+      </c>
+      <c r="C23">
+        <v>0.8069719124519394</v>
+      </c>
+      <c r="D23">
+        <v>0.5896511102046986</v>
+      </c>
+      <c r="E23">
+        <v>0.2069719124519395</v>
+      </c>
+      <c r="F23">
+        <v>0.6816548326408736</v>
+      </c>
+      <c r="G23">
+        <v>0.5228108112319774</v>
+      </c>
+      <c r="H23">
+        <v>0.5789800806167875</v>
+      </c>
+      <c r="I23">
+        <v>2.80697191245194</v>
+      </c>
+      <c r="J23">
+        <v>10.29792742408026</v>
+      </c>
+      <c r="K23">
+        <v>-6.033028087548061</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>0.4972792544561997</v>
+      </c>
+      <c r="C24">
+        <v>0.2799584522089588</v>
+      </c>
+      <c r="D24">
+        <v>-0.1027207455438003</v>
+      </c>
+      <c r="E24">
+        <v>0.3719621746451338</v>
+      </c>
+      <c r="F24">
+        <v>0.2131181532362376</v>
+      </c>
+      <c r="G24">
+        <v>0.2692874226210477</v>
+      </c>
+      <c r="H24">
+        <v>2.4972792544562</v>
+      </c>
+      <c r="I24">
+        <v>9.988234766084517</v>
+      </c>
+      <c r="J24">
+        <v>-6.342720745543801</v>
+      </c>
+      <c r="K24">
+        <v>0.6972792544562054</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>0.4342629871270418</v>
+      </c>
+      <c r="C25">
+        <v>0.05158378937428265</v>
+      </c>
+      <c r="D25">
+        <v>0.5262667095632168</v>
+      </c>
+      <c r="E25">
+        <v>0.3674226881543206</v>
+      </c>
+      <c r="F25">
+        <v>0.4235919575391307</v>
+      </c>
+      <c r="G25">
+        <v>2.651583789374283</v>
+      </c>
+      <c r="H25">
+        <v>10.1425393010026</v>
+      </c>
+      <c r="I25">
+        <v>-6.188416210625718</v>
+      </c>
+      <c r="J25">
+        <v>0.8515837893742884</v>
+      </c>
+      <c r="K25">
+        <v>1.161063789374282</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>-0.6000000000000001</v>
+      </c>
+      <c r="C26">
+        <v>-0.1253170798110659</v>
+      </c>
+      <c r="D26">
+        <v>-0.2841611012199621</v>
+      </c>
+      <c r="E26">
+        <v>-0.227991831835152</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26">
+        <v>9.490955511628318</v>
+      </c>
+      <c r="H26">
+        <v>-6.840000000000001</v>
+      </c>
+      <c r="I26">
+        <v>0.2000000000000057</v>
+      </c>
+      <c r="J26">
+        <v>0.5094799999999993</v>
+      </c>
+      <c r="K26">
+        <v>-1.510000000000016</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>0.09200372243617494</v>
+      </c>
+      <c r="C27">
+        <v>-0.06684029897272126</v>
+      </c>
+      <c r="D27">
+        <v>-0.01067102958791111</v>
+      </c>
+      <c r="E27">
+        <v>2.217320802247241</v>
+      </c>
+      <c r="F27">
+        <v>9.708276313875558</v>
+      </c>
+      <c r="G27">
+        <v>-6.62267919775276</v>
+      </c>
+      <c r="H27">
+        <v>0.4173208022472465</v>
+      </c>
+      <c r="I27">
+        <v>0.7268008022472401</v>
+      </c>
+      <c r="J27">
+        <v>-1.292679197752775</v>
+      </c>
+      <c r="K27">
+        <v>-1.502679197752769</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>0.3158388987800379</v>
+      </c>
+      <c r="C28">
+        <v>0.3720081681648481</v>
+      </c>
+      <c r="D28">
+        <v>2.6</v>
+      </c>
+      <c r="E28">
+        <v>10.09095551162832</v>
+      </c>
+      <c r="F28">
+        <v>-6.24</v>
+      </c>
+      <c r="G28">
+        <v>0.8000000000000057</v>
+      </c>
+      <c r="H28">
+        <v>1.109479999999999</v>
+      </c>
+      <c r="I28">
+        <v>-0.910000000000016</v>
+      </c>
+      <c r="J28">
+        <v>-1.12000000000001</v>
+      </c>
+      <c r="K28">
+        <v>0.9399999999999921</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>-0.102674752024086</v>
+      </c>
+      <c r="C29">
+        <v>2.125317079811066</v>
+      </c>
+      <c r="D29">
+        <v>9.616272591439383</v>
+      </c>
+      <c r="E29">
+        <v>-6.714682920188935</v>
+      </c>
+      <c r="F29">
+        <v>0.3253170798110716</v>
+      </c>
+      <c r="G29">
+        <v>0.6347970798110651</v>
+      </c>
+      <c r="H29">
+        <v>-1.38468292018895</v>
+      </c>
+      <c r="I29">
+        <v>-1.594682920188944</v>
+      </c>
+      <c r="J29">
+        <v>0.465317079811058</v>
+      </c>
+      <c r="K29">
+        <v>-0.5399684680992776</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <v>2.284161101219962</v>
+      </c>
+      <c r="C30">
+        <v>9.775116612848279</v>
+      </c>
+      <c r="D30">
+        <v>-6.555838898780038</v>
+      </c>
+      <c r="E30">
+        <v>0.4841611012199678</v>
+      </c>
+      <c r="F30">
+        <v>0.7936411012199613</v>
+      </c>
+      <c r="G30">
+        <v>-1.225838898780054</v>
+      </c>
+      <c r="H30">
+        <v>-1.435838898780048</v>
+      </c>
+      <c r="I30">
+        <v>0.6241611012199542</v>
+      </c>
+      <c r="J30">
+        <v>-0.3811244466903814</v>
+      </c>
+      <c r="K30">
+        <v>-0.2958388987800379</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31">
+        <v>9.718947343463469</v>
+      </c>
+      <c r="C31">
+        <v>-6.612008168164849</v>
+      </c>
+      <c r="D31">
+        <v>0.4279918318351577</v>
+      </c>
+      <c r="E31">
+        <v>0.7374718318351512</v>
+      </c>
+      <c r="F31">
+        <v>-1.282008168164864</v>
+      </c>
+      <c r="G31">
+        <v>-1.492008168164858</v>
+      </c>
+      <c r="H31">
+        <v>0.567991831835144</v>
+      </c>
+      <c r="I31">
+        <v>-0.4372937160751915</v>
+      </c>
+      <c r="J31">
+        <v>-0.352008168164848</v>
+      </c>
+      <c r="K31">
+        <v>-0.01200816816484803</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>-8.84</v>
+      </c>
+      <c r="C32">
+        <v>-1.799999999999994</v>
+      </c>
+      <c r="D32">
+        <v>-1.490520000000001</v>
+      </c>
+      <c r="E32">
+        <v>-3.510000000000016</v>
+      </c>
+      <c r="F32">
+        <v>-3.72000000000001</v>
+      </c>
+      <c r="G32">
+        <v>-1.660000000000008</v>
+      </c>
+      <c r="H32">
+        <v>-2.665285547910344</v>
+      </c>
+      <c r="I32">
+        <v>-2.58</v>
+      </c>
+      <c r="J32">
+        <v>-2.24</v>
+      </c>
+      <c r="K32">
+        <v>-1.91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>7.040000000000006</v>
+      </c>
+      <c r="C33">
+        <v>7.34948</v>
+      </c>
+      <c r="D33">
+        <v>5.329999999999984</v>
+      </c>
+      <c r="E33">
+        <v>5.11999999999999</v>
+      </c>
+      <c r="F33">
+        <v>7.179999999999993</v>
+      </c>
+      <c r="G33">
+        <v>6.174714452089657</v>
+      </c>
+      <c r="H33">
+        <v>6.260000000000001</v>
+      </c>
+      <c r="I33">
+        <v>6.600000000000001</v>
+      </c>
+      <c r="J33">
+        <v>6.930000000000001</v>
+      </c>
+      <c r="K33">
+        <v>6.847877957415292</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>0.3094799999999935</v>
+      </c>
+      <c r="C34">
+        <v>-1.710000000000022</v>
+      </c>
+      <c r="D34">
+        <v>-1.920000000000016</v>
+      </c>
+      <c r="E34">
+        <v>0.1399999999999864</v>
+      </c>
+      <c r="F34">
+        <v>-0.8652855479103492</v>
+      </c>
+      <c r="G34">
+        <v>-0.7800000000000057</v>
+      </c>
+      <c r="H34">
+        <v>-0.4400000000000057</v>
+      </c>
+      <c r="I34">
+        <v>-0.1100000000000057</v>
+      </c>
+      <c r="J34">
+        <v>-0.1921220425847139</v>
+      </c>
+      <c r="K34">
+        <v>-0.520647833178586</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>-2.019480000000015</v>
+      </c>
+      <c r="C35">
+        <v>-2.229480000000009</v>
+      </c>
+      <c r="D35">
+        <v>-0.1694800000000072</v>
+      </c>
+      <c r="E35">
+        <v>-1.174765547910343</v>
+      </c>
+      <c r="F35">
+        <v>-1.089479999999999</v>
+      </c>
+      <c r="G35">
+        <v>-0.7494799999999993</v>
+      </c>
+      <c r="H35">
+        <v>-0.4194799999999992</v>
+      </c>
+      <c r="I35">
+        <v>-0.5016020425847074</v>
+      </c>
+      <c r="J35">
+        <v>-0.8301278331785795</v>
+      </c>
+      <c r="K35">
+        <v>-0.5294799999999993</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>-0.209999999999994</v>
+      </c>
+      <c r="C36">
+        <v>1.850000000000008</v>
+      </c>
+      <c r="D36">
+        <v>0.8447144520896726</v>
+      </c>
+      <c r="E36">
+        <v>0.930000000000016</v>
+      </c>
+      <c r="F36">
+        <v>1.270000000000016</v>
+      </c>
+      <c r="G36">
+        <v>1.600000000000016</v>
+      </c>
+      <c r="H36">
+        <v>1.517877957415308</v>
+      </c>
+      <c r="I36">
+        <v>1.189352166821436</v>
+      </c>
+      <c r="J36">
+        <v>1.490000000000016</v>
+      </c>
+      <c r="K36">
+        <v>1.266000000000016</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>2.060000000000002</v>
+      </c>
+      <c r="C37">
+        <v>1.054714452089667</v>
+      </c>
+      <c r="D37">
+        <v>1.14000000000001</v>
+      </c>
+      <c r="E37">
+        <v>1.48000000000001</v>
+      </c>
+      <c r="F37">
+        <v>1.81000000000001</v>
+      </c>
+      <c r="G37">
+        <v>1.727877957415302</v>
+      </c>
+      <c r="H37">
+        <v>1.39935216682143</v>
+      </c>
+      <c r="I37">
+        <v>1.70000000000001</v>
+      </c>
+      <c r="J37">
+        <v>1.47600000000001</v>
+      </c>
+      <c r="K37">
+        <v>1.602510040463514</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>-1.005285547910336</v>
+      </c>
+      <c r="C38">
+        <v>-0.919999999999992</v>
+      </c>
+      <c r="D38">
+        <v>-0.5799999999999921</v>
+      </c>
+      <c r="E38">
+        <v>-0.2499999999999921</v>
+      </c>
+      <c r="F38">
+        <v>-0.3321220425847002</v>
+      </c>
+      <c r="G38">
+        <v>-0.6606478331785723</v>
+      </c>
+      <c r="H38">
+        <v>-0.359999999999992</v>
+      </c>
+      <c r="I38">
+        <v>-0.5839999999999921</v>
+      </c>
+      <c r="J38">
+        <v>-0.4574899595364883</v>
+      </c>
+      <c r="K38">
+        <v>-0.7982525219575223</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
         <v>0.08528554791034348</v>
       </c>
-      <c r="C2">
+      <c r="C39">
         <v>0.4252855479103435</v>
       </c>
-      <c r="D2">
+      <c r="D39">
         <v>0.7552855479103435</v>
       </c>
-      <c r="E2">
+      <c r="E39">
         <v>0.6731635053256353</v>
       </c>
-      <c r="F2">
+      <c r="F39">
         <v>0.3446377147317632</v>
       </c>
-      <c r="G2">
+      <c r="G39">
         <v>0.6452855479103434</v>
       </c>
-      <c r="H2">
+      <c r="H39">
         <v>0.4212855479103435</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3">
+      <c r="I39">
+        <v>0.5477955883738472</v>
+      </c>
+      <c r="J39">
+        <v>0.2070330259528133</v>
+      </c>
+      <c r="K39">
+        <v>0.5124610731352872</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40">
         <v>0.34</v>
       </c>
-      <c r="C3">
+      <c r="C40">
         <v>0.6699999999999999</v>
       </c>
-      <c r="D3">
+      <c r="D40">
         <v>0.5878779574152918</v>
       </c>
-      <c r="E3">
+      <c r="E40">
         <v>0.2593521668214197</v>
       </c>
-      <c r="F3">
+      <c r="F40">
         <v>0.5600000000000001</v>
       </c>
-      <c r="G3">
+      <c r="G40">
         <v>0.336</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4">
+      <c r="H40">
+        <v>0.4625100404635037</v>
+      </c>
+      <c r="I40">
+        <v>0.1217474780424698</v>
+      </c>
+      <c r="J40">
+        <v>0.4271755252249437</v>
+      </c>
+      <c r="K40">
+        <v>0.1657702194510523</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41">
         <v>0.33</v>
       </c>
-      <c r="C4">
+      <c r="C41">
         <v>0.2478779574152918</v>
       </c>
-      <c r="D4">
+      <c r="D41">
         <v>-0.08064783317858029</v>
       </c>
-      <c r="E4">
+      <c r="E41">
         <v>0.22</v>
       </c>
-      <c r="F4">
+      <c r="F41">
         <v>-0.003999999999999997</v>
       </c>
-      <c r="G4">
+      <c r="G41">
         <v>0.1225100404635037</v>
       </c>
-      <c r="H4">
+      <c r="H41">
         <v>-0.2182525219575302</v>
       </c>
-      <c r="I4">
+      <c r="I41">
         <v>0.08717552522494373</v>
       </c>
-      <c r="J4">
+      <c r="J41">
         <v>-0.1742297805489477</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5">
+      <c r="K41">
+        <v>-0.1994371574146135</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42">
         <v>-0.08212204258470818</v>
       </c>
-      <c r="C5">
+      <c r="C42">
         <v>-0.4106478331785803</v>
       </c>
-      <c r="D5">
+      <c r="D42">
         <v>-0.11</v>
       </c>
-      <c r="E5">
+      <c r="E42">
         <v>-0.334</v>
       </c>
-      <c r="F5">
+      <c r="F42">
         <v>-0.2074899595364962</v>
       </c>
-      <c r="G5">
+      <c r="G42">
         <v>-0.5482525219575302</v>
       </c>
-      <c r="H5">
+      <c r="H42">
         <v>-0.2428244747750563</v>
       </c>
-      <c r="I5">
+      <c r="I42">
         <v>-0.5042297805489477</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6">
+      <c r="J42">
+        <v>-0.5294371574146135</v>
+      </c>
+      <c r="K42">
+        <v>-0.3371788341830432</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43">
         <v>-0.3285257905938721</v>
       </c>
-      <c r="C6">
+      <c r="C43">
         <v>-0.02787795741529181</v>
       </c>
-      <c r="D6">
+      <c r="D43">
         <v>-0.2518779574152918</v>
       </c>
-      <c r="E6">
+      <c r="E43">
         <v>-0.1253679169517881</v>
       </c>
-      <c r="F6">
+      <c r="F43">
         <v>-0.466130479372822</v>
       </c>
-      <c r="G6">
+      <c r="G43">
         <v>-0.1607024321903481</v>
       </c>
-      <c r="H6">
+      <c r="H43">
         <v>-0.4221077379642395</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7">
+      <c r="I43">
+        <v>-0.4473151148299053</v>
+      </c>
+      <c r="J43">
+        <v>-0.2550567915983351</v>
+      </c>
+      <c r="K43">
+        <v>-0.3038274930358682</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44">
         <v>0.3006478331785803</v>
       </c>
-      <c r="C7">
+      <c r="C44">
         <v>0.0766478331785803</v>
       </c>
-      <c r="D7">
+      <c r="D44">
         <v>0.203157873642084</v>
       </c>
-      <c r="E7">
+      <c r="E44">
         <v>-0.1376046887789499</v>
       </c>
-      <c r="F7">
+      <c r="F44">
         <v>0.167823358403524</v>
       </c>
-      <c r="G7">
+      <c r="G44">
         <v>-0.0935819473703674</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8">
+      <c r="H44">
+        <v>-0.1187893242360332</v>
+      </c>
+      <c r="I44">
+        <v>0.07346899899553705</v>
+      </c>
+      <c r="J44">
+        <v>0.0246982975580039</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45">
         <v>-0.224</v>
       </c>
-      <c r="C8">
+      <c r="C45">
         <v>-0.09748995953649625</v>
       </c>
-      <c r="D8">
+      <c r="D45">
         <v>-0.4382525219575302</v>
       </c>
-      <c r="E8">
+      <c r="E45">
         <v>-0.1328244747750563</v>
       </c>
-      <c r="F8">
+      <c r="F45">
         <v>-0.3942297805489477</v>
       </c>
-      <c r="G8">
+      <c r="G45">
         <v>-0.4194371574146135</v>
       </c>
-      <c r="H8">
+      <c r="H45">
         <v>-0.2271788341830432</v>
       </c>
-      <c r="I8">
+      <c r="I45">
         <v>-0.2759495356205764</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9">
+    <row r="46" spans="1:11">
+      <c r="A46" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46">
         <v>0.1265100404635037</v>
       </c>
-      <c r="C9">
+      <c r="C46">
         <v>-0.2142525219575302</v>
       </c>
-      <c r="D9">
+      <c r="D46">
         <v>0.09117552522494374</v>
       </c>
-      <c r="E9">
+      <c r="E46">
         <v>-0.1702297805489477</v>
       </c>
-      <c r="F9">
+      <c r="F46">
         <v>-0.1954371574146135</v>
       </c>
-      <c r="G9">
+      <c r="G46">
         <v>-0.003178834183043253</v>
       </c>
-      <c r="H9">
+      <c r="H46">
         <v>-0.0519495356205764</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10">
+    <row r="47" spans="1:11">
+      <c r="A47" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47">
         <v>-0.3407625624210339</v>
       </c>
-      <c r="C10">
+      <c r="C47">
         <v>-0.03533451523856001</v>
       </c>
-      <c r="D10">
+      <c r="D47">
         <v>-0.2967398210124514</v>
       </c>
-      <c r="E10">
+      <c r="E47">
         <v>-0.3219471978781172</v>
       </c>
-      <c r="F10">
+      <c r="F47">
         <v>-0.129688874646547</v>
       </c>
-      <c r="G10">
+      <c r="G47">
         <v>-0.1784595760840801</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11">
+    <row r="48" spans="1:11">
+      <c r="A48" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48">
         <v>0.3054280471824739</v>
       </c>
-      <c r="C11">
+      <c r="C48">
         <v>0.04402274140858248</v>
       </c>
-      <c r="D11">
+      <c r="D48">
         <v>0.01881536454291668</v>
       </c>
-      <c r="E11">
+      <c r="E48">
         <v>0.2110736877744869</v>
       </c>
-      <c r="F11">
+      <c r="F48">
         <v>0.1623029863369538</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12">
+    <row r="49" spans="1:5">
+      <c r="A49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49">
         <v>-0.2614053057738914</v>
       </c>
-      <c r="C12">
+      <c r="C49">
         <v>-0.2866126826395572</v>
       </c>
-      <c r="D12">
+      <c r="D49">
         <v>-0.09435435940798698</v>
       </c>
-      <c r="E12">
+      <c r="E49">
         <v>-0.1431250608455201</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13">
+    <row r="50" spans="1:5">
+      <c r="A50" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50">
         <v>-0.02520737686566579</v>
       </c>
-      <c r="C13">
+      <c r="C50">
         <v>0.1670509463659045</v>
       </c>
-      <c r="D13">
+      <c r="D50">
         <v>0.1182802449283713</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14">
+    <row r="51" spans="1:5">
+      <c r="A51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51">
         <v>0.1922583232315702</v>
       </c>
-      <c r="C14">
+      <c r="C51">
         <v>0.1434876217940371</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15">
+    <row r="52" spans="1:5">
+      <c r="A52" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52">
         <v>-0.04877070143753315</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="1" t="s">
-        <v>23</v>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/GDP/Data/naive_err/AVERAGE_1_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/GDP/Data/naive_err/AVERAGE_1_9_qoq_errors_first_eval.xlsx
@@ -600,34 +600,34 @@
         <v>10</v>
       </c>
       <c r="B2">
+        <v>0.4174201971331115</v>
+      </c>
+      <c r="C2">
         <v>-0.8445728074725023</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>1.106635999598907</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>1.207881712040546</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>2.909537472365884</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>4.484237271275873</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>0.2408662136045904</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>-0.0445653876890475</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0.5028049249471138</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>0.5221204707982281</v>
-      </c>
-      <c r="K2">
-        <v>-1.616527972633821</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -635,34 +635,34 @@
         <v>11</v>
       </c>
       <c r="B3">
+        <v>1.95120880707141</v>
+      </c>
+      <c r="C3">
         <v>2.052454519513049</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>3.754110279838386</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>5.328810078748375</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>1.085439021077093</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.8000074197834548</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>1.347377732419616</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>1.36669327827073</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>-0.7719551651613188</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>0.8280448348386811</v>
-      </c>
-      <c r="K3">
-        <v>1.163280553332441</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -670,34 +670,34 @@
         <v>12</v>
       </c>
       <c r="B4">
+        <v>1.701655760325337</v>
+      </c>
+      <c r="C4">
         <v>3.276355559235327</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>-0.9670154984359556</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>-1.252447099729594</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>-0.7050767870934322</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>-0.685761241242318</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>-2.824409684674367</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>-1.224409684674367</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>-0.8891739661806071</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>-2.024409684674367</v>
-      </c>
-      <c r="K4">
-        <v>-0.8244096846743674</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -705,34 +705,34 @@
         <v>13</v>
       </c>
       <c r="B5">
+        <v>-4.243371057671283</v>
+      </c>
+      <c r="C5">
         <v>-4.528802658964921</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>-3.981432346328759</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>-3.962116800477645</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>-6.100765243909693</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>-4.500765243909694</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>-4.165529525415933</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>-5.300765243909694</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>-4.100765243909694</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>-4.300765243909694</v>
-      </c>
-      <c r="K5">
-        <v>-3.618899848111766</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -740,34 +740,34 @@
         <v>14</v>
       </c>
       <c r="B6">
+        <v>0.5473703126361613</v>
+      </c>
+      <c r="C6">
         <v>0.5666858584872756</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>-1.571962584944774</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.02803741505522628</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.3632731335489865</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>-0.7719625849447738</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>0.4280374150552262</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>0.2280374150552262</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>0.9099028108531542</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>0.2280374150552262</v>
-      </c>
-      <c r="K6">
-        <v>0.4280374150552262</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -775,34 +775,34 @@
         <v>15</v>
       </c>
       <c r="B7">
+        <v>-2.138648443432049</v>
+      </c>
+      <c r="C7">
         <v>-0.5386484434320493</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>-0.2034127249382891</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>-1.338648443432049</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>-0.1386484434320494</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>-0.3386484434320494</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>0.3432169523658785</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>-0.3386484434320494</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>-0.1386484434320494</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>-0.0386484434320494</v>
-      </c>
-      <c r="K7">
-        <v>0.8526704950438528</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -810,34 +810,34 @@
         <v>16</v>
       </c>
       <c r="B8">
+        <v>0.3352357184937603</v>
+      </c>
+      <c r="C8">
         <v>-0.8</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>0.4</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>0.2</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>0.8818653957979279</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0.2</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>0.4</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>0.4999999999999999</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>1.391318938475902</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>0.6367194630928423</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -845,34 +845,34 @@
         <v>17</v>
       </c>
       <c r="B9">
+        <v>1.2</v>
+      </c>
+      <c r="C9">
         <v>1</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>1.681865395797928</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>1</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>1.2</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>1.3</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>2.191318938475902</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>1.436719463092842</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>0.8</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>1.2</v>
-      </c>
-      <c r="K9">
-        <v>1.116241717278726</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -880,34 +880,34 @@
         <v>18</v>
       </c>
       <c r="B10">
+        <v>0.6818653957979279</v>
+      </c>
+      <c r="C10">
         <v>0</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>0.2</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>0.3</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>1.191318938475902</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>0.4367194630928424</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>-0.2</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>0.2</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>0.1162417172787258</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>-0.3179240379891439</v>
-      </c>
-      <c r="K10">
-        <v>0.5850941960705711</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -915,34 +915,34 @@
         <v>19</v>
       </c>
       <c r="B11">
+        <v>0.2</v>
+      </c>
+      <c r="C11">
         <v>0.3</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>1.191318938475902</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>0.4367194630928424</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>-0.2</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>0.2</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>0.1162417172787258</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>-0.3179240379891439</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>0.5850941960705711</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>0.4337607274278525</v>
-      </c>
-      <c r="K11">
-        <v>-0.199690853462215</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -950,34 +950,34 @@
         <v>20</v>
       </c>
       <c r="B12">
+        <v>0.8913189384759022</v>
+      </c>
+      <c r="C12">
         <v>0.1367194630928424</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>-0.4999999999999999</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>-0.09999999999999998</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>-0.1837582827212742</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>-0.617924037989144</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>0.2850941960705711</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>0.1337607274278526</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>-0.499690853462215</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>-0.0723040558628753</v>
-      </c>
-      <c r="K12">
-        <v>-0.2386429368392442</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -985,34 +985,34 @@
         <v>21</v>
       </c>
       <c r="B13">
+        <v>-0.6367194630928423</v>
+      </c>
+      <c r="C13">
         <v>-0.2367194630928424</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>-0.3204777458141166</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>-0.7546435010819863</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>0.1483747329777287</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>-0.002958735664989831</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>-0.6364103165550574</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>-0.2090235189557177</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>-0.3753623999320866</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>-0.2526440311233529</v>
-      </c>
-      <c r="K13">
-        <v>-0.2054101948793204</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1020,34 +1020,34 @@
         <v>22</v>
       </c>
       <c r="B14">
+        <v>-0.08375828272127422</v>
+      </c>
+      <c r="C14">
         <v>-0.5179240379891439</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>0.3850941960705711</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>0.2337607274278525</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>-0.3996908534622151</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>0.02769594413712467</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>-0.1386429368392442</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>-0.01592456803051051</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>0.03130926821352198</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>-0.3653145667921905</v>
-      </c>
-      <c r="K14">
-        <v>-0.1112540268827303</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1055,34 +1055,34 @@
         <v>23</v>
       </c>
       <c r="B15">
+        <v>0.903018234059715</v>
+      </c>
+      <c r="C15">
         <v>0.7516847654169965</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>0.1182331845269289</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>0.5456199821262686</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>0.3792811011498997</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>0.5019994699586334</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>0.549233306202666</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>0.1526094711969535</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>0.4066700111064137</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>0.6267892745121628</v>
-      </c>
-      <c r="K15">
-        <v>0.4001953286979471</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1090,34 +1090,34 @@
         <v>24</v>
       </c>
       <c r="B16">
+        <v>-0.6334515808900676</v>
+      </c>
+      <c r="C16">
         <v>-0.2060647832907279</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>-0.3724036642670968</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>-0.249685295458363</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>-0.2024514592143306</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>-0.599075294220043</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>-0.3450147543105828</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>-0.1248954909048337</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>-0.3514894367190494</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>-0.5396551693377063</v>
-      </c>
-      <c r="K16">
-        <v>-0.5669631475580985</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1125,34 +1125,34 @@
         <v>25</v>
       </c>
       <c r="B17">
+        <v>-0.1663388809763689</v>
+      </c>
+      <c r="C17">
         <v>-0.04362051216763518</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>0.003613324076397306</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>-0.3930105109293152</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>-0.138949971019855</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>0.08116929238589421</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>-0.1454246534283215</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>-0.3335903860469784</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>-0.3608983642673707</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>-0.5518676766958066</v>
-      </c>
-      <c r="K17">
-        <v>-0.3346678565890642</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1160,34 +1160,34 @@
         <v>26</v>
       </c>
       <c r="B18">
+        <v>0.04723383624403249</v>
+      </c>
+      <c r="C18">
         <v>-0.34938999876168</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>-0.09532945885221977</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>0.1247898045535294</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>-0.1018041412606863</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>-0.2899698738793433</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>-0.3172778520997355</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>-0.5082471645281714</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>-0.291047344421429</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>0.01864531357431082</v>
-      </c>
-      <c r="K18">
-        <v>-0.1356592213437722</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1195,34 +1195,34 @@
         <v>27</v>
       </c>
       <c r="B19">
+        <v>0.2540605399094602</v>
+      </c>
+      <c r="C19">
         <v>0.4741798033152094</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>0.2475858575009937</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>0.05942012488233672</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>0.03211214666194451</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>-0.1588571657664914</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>0.05834265434025099</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>0.3680353123359908</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>0.2137307774179078</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>0.8653145667921904</v>
-      </c>
-      <c r="K19">
-        <v>0.6479937645449496</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1230,34 +1230,34 @@
         <v>28</v>
       </c>
       <c r="B20">
+        <v>-0.2265939458142157</v>
+      </c>
+      <c r="C20">
         <v>-0.4147596784328726</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>-0.4420676566532649</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>-0.6330369690817008</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>-0.4158371489749584</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>-0.1061444909792186</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>-0.2604490258973016</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>0.3911347634769811</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>0.1738139612297402</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>-0.2088652365230189</v>
-      </c>
-      <c r="K20">
-        <v>0.2658176836659152</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1265,34 +1265,34 @@
         <v>29</v>
       </c>
       <c r="B21">
+        <v>-0.02730797822039222</v>
+      </c>
+      <c r="C21">
         <v>-0.2182772906488282</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>-0.001077470542085734</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>0.3086151874536541</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>0.1543106525355711</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>0.8058944419098537</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>0.5885736396626129</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>0.2058944419098537</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>0.6805773620987878</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>0.5217333406898916</v>
-      </c>
-      <c r="K21">
-        <v>0.5779026100747018</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1300,34 +1300,34 @@
         <v>30</v>
       </c>
       <c r="B22">
+        <v>0.2171998201067424</v>
+      </c>
+      <c r="C22">
         <v>0.5268924781024822</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>0.3725879431843993</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>1.024171732558682</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>0.8068509303114411</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>0.4241717325586819</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>0.898854652747616</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>0.7400106313387198</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>0.79617990072353</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>3.024171732558682</v>
-      </c>
-      <c r="K22">
-        <v>10.515127244187</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1335,34 +1335,34 @@
         <v>31</v>
       </c>
       <c r="B23">
+        <v>0.3096926579957398</v>
+      </c>
+      <c r="C23">
         <v>0.1553881230776568</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>0.8069719124519394</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>0.5896511102046986</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>0.2069719124519395</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>0.6816548326408736</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>0.5228108112319774</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>0.5789800806167875</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>2.80697191245194</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>10.29792742408026</v>
-      </c>
-      <c r="K23">
-        <v>-6.033028087548061</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1370,34 +1370,34 @@
         <v>32</v>
       </c>
       <c r="B24">
+        <v>-0.154304534918083</v>
+      </c>
+      <c r="C24">
         <v>0.4972792544561997</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>0.2799584522089588</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>-0.1027207455438003</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>0.3719621746451338</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>0.2131181532362376</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>0.2692874226210477</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>2.4972792544562</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>9.988234766084517</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>-6.342720745543801</v>
-      </c>
-      <c r="K24">
-        <v>0.6972792544562054</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1405,34 +1405,34 @@
         <v>33</v>
       </c>
       <c r="B25">
+        <v>0.6515837893742826</v>
+      </c>
+      <c r="C25">
         <v>0.4342629871270418</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>0.05158378937428265</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>0.5262667095632168</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>0.3674226881543206</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>0.4235919575391307</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>2.651583789374283</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>10.1425393010026</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>-6.188416210625718</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>0.8515837893742884</v>
-      </c>
-      <c r="K25">
-        <v>1.161063789374282</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1440,34 +1440,34 @@
         <v>34</v>
       </c>
       <c r="B26">
+        <v>-0.2173208022472409</v>
+      </c>
+      <c r="C26">
         <v>-0.6000000000000001</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>-0.1253170798110659</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>-0.2841611012199621</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>-0.227991831835152</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>2</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>9.490955511628318</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>-6.840000000000001</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>0.2000000000000057</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>0.5094799999999993</v>
-      </c>
-      <c r="K26">
-        <v>-1.510000000000016</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1475,34 +1475,34 @@
         <v>35</v>
       </c>
       <c r="B27">
+        <v>-0.3826791977527592</v>
+      </c>
+      <c r="C27">
         <v>0.09200372243617494</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>-0.06684029897272126</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>-0.01067102958791111</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>2.217320802247241</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>9.708276313875558</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>-6.62267919775276</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>0.4173208022472465</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>0.7268008022472401</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>-1.292679197752775</v>
-      </c>
-      <c r="K27">
-        <v>-1.502679197752769</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1510,34 +1510,34 @@
         <v>36</v>
       </c>
       <c r="B28">
+        <v>0.4746829201889341</v>
+      </c>
+      <c r="C28">
         <v>0.3158388987800379</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>0.3720081681648481</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>2.6</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>10.09095551162832</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>-6.24</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>0.8000000000000057</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>1.109479999999999</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>-0.910000000000016</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>-1.12000000000001</v>
-      </c>
-      <c r="K28">
-        <v>0.9399999999999921</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1545,34 +1545,34 @@
         <v>37</v>
       </c>
       <c r="B29">
+        <v>-0.1588440214088962</v>
+      </c>
+      <c r="C29">
         <v>-0.102674752024086</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>2.125317079811066</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>9.616272591439383</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>-6.714682920188935</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>0.3253170798110716</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>0.6347970798110651</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>-1.38468292018895</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>-1.594682920188944</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>0.465317079811058</v>
-      </c>
-      <c r="K29">
-        <v>-0.5399684680992776</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1580,34 +1580,34 @@
         <v>38</v>
       </c>
       <c r="B30">
+        <v>0.05616926938481015</v>
+      </c>
+      <c r="C30">
         <v>2.284161101219962</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>9.775116612848279</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>-6.555838898780038</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>0.4841611012199678</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>0.7936411012199613</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>-1.225838898780054</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>-1.435838898780048</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>0.6241611012199542</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>-0.3811244466903814</v>
-      </c>
-      <c r="K30">
-        <v>-0.2958388987800379</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1615,34 +1615,34 @@
         <v>39</v>
       </c>
       <c r="B31">
+        <v>2.227991831835152</v>
+      </c>
+      <c r="C31">
         <v>9.718947343463469</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>-6.612008168164849</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>0.4279918318351577</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>0.7374718318351512</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>-1.282008168164864</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>-1.492008168164858</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>0.567991831835144</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>-0.4372937160751915</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>-0.352008168164848</v>
-      </c>
-      <c r="K31">
-        <v>-0.01200816816484803</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1650,34 +1650,34 @@
         <v>40</v>
       </c>
       <c r="B32">
+        <v>7.490955511628317</v>
+      </c>
+      <c r="C32">
         <v>-8.84</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>-1.799999999999994</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>-1.490520000000001</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>-3.510000000000016</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>-3.72000000000001</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>-1.660000000000008</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>-2.665285547910344</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>-2.58</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>-2.24</v>
-      </c>
-      <c r="K32">
-        <v>-1.91</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1685,34 +1685,34 @@
         <v>41</v>
       </c>
       <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
         <v>7.040000000000006</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>7.34948</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>5.329999999999984</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>5.11999999999999</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>7.179999999999993</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>6.174714452089657</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>6.260000000000001</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>6.600000000000001</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>6.930000000000001</v>
-      </c>
-      <c r="K33">
-        <v>6.847877957415292</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1720,34 +1720,34 @@
         <v>42</v>
       </c>
       <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
         <v>0.3094799999999935</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>-1.710000000000022</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>-1.920000000000016</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>0.1399999999999864</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>-0.8652855479103492</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>-0.7800000000000057</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>-0.4400000000000057</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>-0.1100000000000057</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>-0.1921220425847139</v>
-      </c>
-      <c r="K34">
-        <v>-0.520647833178586</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1755,34 +1755,31 @@
         <v>43</v>
       </c>
       <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
         <v>-2.019480000000015</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>-2.229480000000009</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>-0.1694800000000072</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>-1.174765547910343</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>-1.089479999999999</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>-0.7494799999999993</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>-0.4194799999999992</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>-0.5016020425847074</v>
-      </c>
-      <c r="J35">
-        <v>-0.8301278331785795</v>
-      </c>
-      <c r="K35">
-        <v>-0.5294799999999993</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1790,34 +1787,28 @@
         <v>44</v>
       </c>
       <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
         <v>-0.209999999999994</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>1.850000000000008</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>0.8447144520896726</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>0.930000000000016</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>1.270000000000016</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>1.600000000000016</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>1.517877957415308</v>
-      </c>
-      <c r="I36">
-        <v>1.189352166821436</v>
-      </c>
-      <c r="J36">
-        <v>1.490000000000016</v>
-      </c>
-      <c r="K36">
-        <v>1.266000000000016</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1825,34 +1816,25 @@
         <v>45</v>
       </c>
       <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
         <v>2.060000000000002</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>1.054714452089667</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>1.14000000000001</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>1.48000000000001</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>1.81000000000001</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>1.727877957415302</v>
-      </c>
-      <c r="H37">
-        <v>1.39935216682143</v>
-      </c>
-      <c r="I37">
-        <v>1.70000000000001</v>
-      </c>
-      <c r="J37">
-        <v>1.47600000000001</v>
-      </c>
-      <c r="K37">
-        <v>1.602510040463514</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1860,34 +1842,22 @@
         <v>46</v>
       </c>
       <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
         <v>-1.005285547910336</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>-0.919999999999992</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>-0.5799999999999921</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>-0.2499999999999921</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>-0.3321220425847002</v>
-      </c>
-      <c r="G38">
-        <v>-0.6606478331785723</v>
-      </c>
-      <c r="H38">
-        <v>-0.359999999999992</v>
-      </c>
-      <c r="I38">
-        <v>-0.5839999999999921</v>
-      </c>
-      <c r="J38">
-        <v>-0.4574899595364883</v>
-      </c>
-      <c r="K38">
-        <v>-0.7982525219575223</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1895,34 +1865,19 @@
         <v>47</v>
       </c>
       <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
         <v>0.08528554791034348</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>0.4252855479103435</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>0.7552855479103435</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>0.6731635053256353</v>
-      </c>
-      <c r="F39">
-        <v>0.3446377147317632</v>
-      </c>
-      <c r="G39">
-        <v>0.6452855479103434</v>
-      </c>
-      <c r="H39">
-        <v>0.4212855479103435</v>
-      </c>
-      <c r="I39">
-        <v>0.5477955883738472</v>
-      </c>
-      <c r="J39">
-        <v>0.2070330259528133</v>
-      </c>
-      <c r="K39">
-        <v>0.5124610731352872</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1930,34 +1885,16 @@
         <v>48</v>
       </c>
       <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
         <v>0.34</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>0.6699999999999999</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>0.5878779574152918</v>
-      </c>
-      <c r="E40">
-        <v>0.2593521668214197</v>
-      </c>
-      <c r="F40">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="G40">
-        <v>0.336</v>
-      </c>
-      <c r="H40">
-        <v>0.4625100404635037</v>
-      </c>
-      <c r="I40">
-        <v>0.1217474780424698</v>
-      </c>
-      <c r="J40">
-        <v>0.4271755252249437</v>
-      </c>
-      <c r="K40">
-        <v>0.1657702194510523</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1965,34 +1902,13 @@
         <v>49</v>
       </c>
       <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
         <v>0.33</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>0.2478779574152918</v>
-      </c>
-      <c r="D41">
-        <v>-0.08064783317858029</v>
-      </c>
-      <c r="E41">
-        <v>0.22</v>
-      </c>
-      <c r="F41">
-        <v>-0.003999999999999997</v>
-      </c>
-      <c r="G41">
-        <v>0.1225100404635037</v>
-      </c>
-      <c r="H41">
-        <v>-0.2182525219575302</v>
-      </c>
-      <c r="I41">
-        <v>0.08717552522494373</v>
-      </c>
-      <c r="J41">
-        <v>-0.1742297805489477</v>
-      </c>
-      <c r="K41">
-        <v>-0.1994371574146135</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2000,34 +1916,10 @@
         <v>50</v>
       </c>
       <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
         <v>-0.08212204258470818</v>
-      </c>
-      <c r="C42">
-        <v>-0.4106478331785803</v>
-      </c>
-      <c r="D42">
-        <v>-0.11</v>
-      </c>
-      <c r="E42">
-        <v>-0.334</v>
-      </c>
-      <c r="F42">
-        <v>-0.2074899595364962</v>
-      </c>
-      <c r="G42">
-        <v>-0.5482525219575302</v>
-      </c>
-      <c r="H42">
-        <v>-0.2428244747750563</v>
-      </c>
-      <c r="I42">
-        <v>-0.5042297805489477</v>
-      </c>
-      <c r="J42">
-        <v>-0.5294371574146135</v>
-      </c>
-      <c r="K42">
-        <v>-0.3371788341830432</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2035,217 +1927,55 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>-0.3285257905938721</v>
-      </c>
-      <c r="C43">
-        <v>-0.02787795741529181</v>
-      </c>
-      <c r="D43">
-        <v>-0.2518779574152918</v>
-      </c>
-      <c r="E43">
-        <v>-0.1253679169517881</v>
-      </c>
-      <c r="F43">
-        <v>-0.466130479372822</v>
-      </c>
-      <c r="G43">
-        <v>-0.1607024321903481</v>
-      </c>
-      <c r="H43">
-        <v>-0.4221077379642395</v>
-      </c>
-      <c r="I43">
-        <v>-0.4473151148299053</v>
-      </c>
-      <c r="J43">
-        <v>-0.2550567915983351</v>
-      </c>
-      <c r="K43">
-        <v>-0.3038274930358682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B44">
-        <v>0.3006478331785803</v>
-      </c>
-      <c r="C44">
-        <v>0.0766478331785803</v>
-      </c>
-      <c r="D44">
-        <v>0.203157873642084</v>
-      </c>
-      <c r="E44">
-        <v>-0.1376046887789499</v>
-      </c>
-      <c r="F44">
-        <v>0.167823358403524</v>
-      </c>
-      <c r="G44">
-        <v>-0.0935819473703674</v>
-      </c>
-      <c r="H44">
-        <v>-0.1187893242360332</v>
-      </c>
-      <c r="I44">
-        <v>0.07346899899553705</v>
-      </c>
-      <c r="J44">
-        <v>0.0246982975580039</v>
-      </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B45">
-        <v>-0.224</v>
-      </c>
-      <c r="C45">
-        <v>-0.09748995953649625</v>
-      </c>
-      <c r="D45">
-        <v>-0.4382525219575302</v>
-      </c>
-      <c r="E45">
-        <v>-0.1328244747750563</v>
-      </c>
-      <c r="F45">
-        <v>-0.3942297805489477</v>
-      </c>
-      <c r="G45">
-        <v>-0.4194371574146135</v>
-      </c>
-      <c r="H45">
-        <v>-0.2271788341830432</v>
-      </c>
-      <c r="I45">
-        <v>-0.2759495356205764</v>
-      </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B46">
-        <v>0.1265100404635037</v>
-      </c>
-      <c r="C46">
-        <v>-0.2142525219575302</v>
-      </c>
-      <c r="D46">
-        <v>0.09117552522494374</v>
-      </c>
-      <c r="E46">
-        <v>-0.1702297805489477</v>
-      </c>
-      <c r="F46">
-        <v>-0.1954371574146135</v>
-      </c>
-      <c r="G46">
-        <v>-0.003178834183043253</v>
-      </c>
-      <c r="H46">
-        <v>-0.0519495356205764</v>
-      </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B47">
-        <v>-0.3407625624210339</v>
-      </c>
-      <c r="C47">
-        <v>-0.03533451523856001</v>
-      </c>
-      <c r="D47">
-        <v>-0.2967398210124514</v>
-      </c>
-      <c r="E47">
-        <v>-0.3219471978781172</v>
-      </c>
-      <c r="F47">
-        <v>-0.129688874646547</v>
-      </c>
-      <c r="G47">
-        <v>-0.1784595760840801</v>
-      </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B48">
-        <v>0.3054280471824739</v>
-      </c>
-      <c r="C48">
-        <v>0.04402274140858248</v>
-      </c>
-      <c r="D48">
-        <v>0.01881536454291668</v>
-      </c>
-      <c r="E48">
-        <v>0.2110736877744869</v>
-      </c>
-      <c r="F48">
-        <v>0.1623029863369538</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+    </row>
+    <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B49">
-        <v>-0.2614053057738914</v>
-      </c>
-      <c r="C49">
-        <v>-0.2866126826395572</v>
-      </c>
-      <c r="D49">
-        <v>-0.09435435940798698</v>
-      </c>
-      <c r="E49">
-        <v>-0.1431250608455201</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+    </row>
+    <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B50">
-        <v>-0.02520737686566579</v>
-      </c>
-      <c r="C50">
-        <v>0.1670509463659045</v>
-      </c>
-      <c r="D50">
-        <v>0.1182802449283713</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+    </row>
+    <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B51">
-        <v>0.1922583232315702</v>
-      </c>
-      <c r="C51">
-        <v>0.1434876217940371</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+    </row>
+    <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B52">
-        <v>-0.04877070143753315</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+    </row>
+    <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
         <v>61</v>
       </c>

--- a/3_Component_Results/GDP/Data/naive_err/AVERAGE_1_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/GDP/Data/naive_err/AVERAGE_1_9_qoq_errors_first_eval.xlsx
@@ -1397,7 +1397,7 @@
         <v>9.988234766084517</v>
       </c>
       <c r="K24">
-        <v>-6.342720745543801</v>
+        <v>-8.183026219731815</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1429,10 +1429,10 @@
         <v>10.1425393010026</v>
       </c>
       <c r="J25">
-        <v>-6.188416210625718</v>
+        <v>-8.028721684813732</v>
       </c>
       <c r="K25">
-        <v>0.8515837893742884</v>
+        <v>0.1109553426839227</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1461,13 +1461,13 @@
         <v>9.490955511628318</v>
       </c>
       <c r="I26">
-        <v>-6.840000000000001</v>
+        <v>-8.680305474188014</v>
       </c>
       <c r="J26">
-        <v>0.2000000000000057</v>
+        <v>-0.54062844669036</v>
       </c>
       <c r="K26">
-        <v>0.5094799999999993</v>
+        <v>1.60694255667963</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1493,16 +1493,16 @@
         <v>9.708276313875558</v>
       </c>
       <c r="H27">
-        <v>-6.62267919775276</v>
+        <v>-8.462984671940774</v>
       </c>
       <c r="I27">
-        <v>0.4173208022472465</v>
+        <v>-0.3233076444431192</v>
       </c>
       <c r="J27">
-        <v>0.7268008022472401</v>
+        <v>1.824263358926871</v>
       </c>
       <c r="K27">
-        <v>-1.292679197752775</v>
+        <v>-1.615771047272361</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1525,19 +1525,19 @@
         <v>10.09095551162832</v>
       </c>
       <c r="G28">
-        <v>-6.24</v>
+        <v>-8.080305474188014</v>
       </c>
       <c r="H28">
-        <v>0.8000000000000057</v>
+        <v>0.05937155330964</v>
       </c>
       <c r="I28">
-        <v>1.109479999999999</v>
+        <v>2.20694255667963</v>
       </c>
       <c r="J28">
-        <v>-0.910000000000016</v>
+        <v>-1.233091849519602</v>
       </c>
       <c r="K28">
-        <v>-1.12000000000001</v>
+        <v>-1.294275412034003</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1557,22 +1557,22 @@
         <v>9.616272591439383</v>
       </c>
       <c r="F29">
-        <v>-6.714682920188935</v>
+        <v>-8.554988394376949</v>
       </c>
       <c r="G29">
-        <v>0.3253170798110716</v>
+        <v>-0.4153113668792941</v>
       </c>
       <c r="H29">
-        <v>0.6347970798110651</v>
+        <v>1.732259636490696</v>
       </c>
       <c r="I29">
-        <v>-1.38468292018895</v>
+        <v>-1.707774769708536</v>
       </c>
       <c r="J29">
-        <v>-1.594682920188944</v>
+        <v>-1.768958332222937</v>
       </c>
       <c r="K29">
-        <v>0.465317079811058</v>
+        <v>0.2725059170203678</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1589,25 +1589,25 @@
         <v>9.775116612848279</v>
       </c>
       <c r="E30">
-        <v>-6.555838898780038</v>
+        <v>-8.396144372968052</v>
       </c>
       <c r="F30">
-        <v>0.4841611012199678</v>
+        <v>-0.2564673454703979</v>
       </c>
       <c r="G30">
-        <v>0.7936411012199613</v>
+        <v>1.891103657899592</v>
       </c>
       <c r="H30">
-        <v>-1.225838898780054</v>
+        <v>-1.54893074829964</v>
       </c>
       <c r="I30">
-        <v>-1.435838898780048</v>
+        <v>-1.610114310814041</v>
       </c>
       <c r="J30">
-        <v>0.6241611012199542</v>
+        <v>0.431349938429264</v>
       </c>
       <c r="K30">
-        <v>-0.3811244466903814</v>
+        <v>-0.1512409947814746</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1621,28 +1621,28 @@
         <v>9.718947343463469</v>
       </c>
       <c r="D31">
-        <v>-6.612008168164849</v>
+        <v>-8.452313642352863</v>
       </c>
       <c r="E31">
-        <v>0.4279918318351577</v>
+        <v>-0.3126366148552081</v>
       </c>
       <c r="F31">
-        <v>0.7374718318351512</v>
+        <v>1.834934388514782</v>
       </c>
       <c r="G31">
-        <v>-1.282008168164864</v>
+        <v>-1.60510001768445</v>
       </c>
       <c r="H31">
-        <v>-1.492008168164858</v>
+        <v>-1.666283580198851</v>
       </c>
       <c r="I31">
-        <v>0.567991831835144</v>
+        <v>0.3751806690444539</v>
       </c>
       <c r="J31">
-        <v>-0.4372937160751915</v>
+        <v>-0.2074102641662847</v>
       </c>
       <c r="K31">
-        <v>-0.352008168164848</v>
+        <v>-0.1117330153097526</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1653,31 +1653,31 @@
         <v>7.490955511628317</v>
       </c>
       <c r="C32">
-        <v>-8.84</v>
+        <v>-10.68030547418801</v>
       </c>
       <c r="D32">
-        <v>-1.799999999999994</v>
+        <v>-2.54062844669036</v>
       </c>
       <c r="E32">
-        <v>-1.490520000000001</v>
+        <v>-0.3930574433203702</v>
       </c>
       <c r="F32">
-        <v>-3.510000000000016</v>
+        <v>-3.833091849519602</v>
       </c>
       <c r="G32">
-        <v>-3.72000000000001</v>
+        <v>-3.894275412034003</v>
       </c>
       <c r="H32">
-        <v>-1.660000000000008</v>
+        <v>-1.852811162790698</v>
       </c>
       <c r="I32">
-        <v>-2.665285547910344</v>
+        <v>-2.435402096001437</v>
       </c>
       <c r="J32">
-        <v>-2.58</v>
+        <v>-2.339724847144905</v>
       </c>
       <c r="K32">
-        <v>-2.24</v>
+        <v>-2.60014685520589</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1685,34 +1685,34 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>-18.17126098581633</v>
       </c>
       <c r="C33">
-        <v>7.040000000000006</v>
+        <v>-10.03158395831868</v>
       </c>
       <c r="D33">
-        <v>7.34948</v>
+        <v>-7.884012954948687</v>
       </c>
       <c r="E33">
-        <v>5.329999999999984</v>
+        <v>-11.32404736114792</v>
       </c>
       <c r="F33">
-        <v>5.11999999999999</v>
+        <v>-11.38523092366232</v>
       </c>
       <c r="G33">
-        <v>7.179999999999993</v>
+        <v>-9.343766674419015</v>
       </c>
       <c r="H33">
-        <v>6.174714452089657</v>
+        <v>-9.926357607629754</v>
       </c>
       <c r="I33">
-        <v>6.260000000000001</v>
+        <v>-9.830680358773222</v>
       </c>
       <c r="J33">
-        <v>6.600000000000001</v>
+        <v>-10.09110236683421</v>
       </c>
       <c r="K33">
-        <v>6.930000000000001</v>
+        <v>-9.255644381000664</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1720,34 +1720,34 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>8.139677027497655</v>
       </c>
       <c r="C34">
-        <v>0.3094799999999935</v>
+        <v>10.28724803086764</v>
       </c>
       <c r="D34">
-        <v>-1.710000000000022</v>
+        <v>6.847213624668413</v>
       </c>
       <c r="E34">
-        <v>-1.920000000000016</v>
+        <v>6.786030062154012</v>
       </c>
       <c r="F34">
-        <v>0.1399999999999864</v>
+        <v>8.827494311397317</v>
       </c>
       <c r="G34">
-        <v>-0.8652855479103492</v>
+        <v>8.244903378186578</v>
       </c>
       <c r="H34">
-        <v>-0.7800000000000057</v>
+        <v>8.34058062704311</v>
       </c>
       <c r="I34">
-        <v>-0.4400000000000057</v>
+        <v>8.080158618982125</v>
       </c>
       <c r="J34">
-        <v>-0.1100000000000057</v>
+        <v>8.915616604815668</v>
       </c>
       <c r="K34">
-        <v>-0.1921220425847139</v>
+        <v>8.81559383571846</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1755,31 +1755,34 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>2.14757100336999</v>
       </c>
       <c r="C35">
-        <v>-2.019480000000015</v>
+        <v>-1.292463402829242</v>
       </c>
       <c r="D35">
-        <v>-2.229480000000009</v>
+        <v>-1.353646965343643</v>
       </c>
       <c r="E35">
-        <v>-0.1694800000000072</v>
+        <v>0.6878172838996619</v>
       </c>
       <c r="F35">
-        <v>-1.174765547910343</v>
+        <v>0.1052263506889233</v>
       </c>
       <c r="G35">
-        <v>-1.089479999999999</v>
+        <v>0.2009035995454554</v>
       </c>
       <c r="H35">
-        <v>-0.7494799999999993</v>
+        <v>-0.05951840851552959</v>
       </c>
       <c r="I35">
-        <v>-0.4194799999999992</v>
+        <v>0.7759395773180131</v>
       </c>
       <c r="J35">
-        <v>-0.5016020425847074</v>
+        <v>0.6759168082208049</v>
+      </c>
+      <c r="K35">
+        <v>0.3220587481868762</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1787,28 +1790,34 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>-3.440034406199232</v>
       </c>
       <c r="C36">
-        <v>-0.209999999999994</v>
+        <v>-3.501217968713633</v>
       </c>
       <c r="D36">
-        <v>1.850000000000008</v>
+        <v>-1.459753719470328</v>
       </c>
       <c r="E36">
-        <v>0.8447144520896726</v>
+        <v>-2.042344652681066</v>
       </c>
       <c r="F36">
-        <v>0.930000000000016</v>
+        <v>-1.946667403824535</v>
       </c>
       <c r="G36">
-        <v>1.270000000000016</v>
+        <v>-2.20708941188552</v>
       </c>
       <c r="H36">
-        <v>1.600000000000016</v>
+        <v>-1.371631426051977</v>
       </c>
       <c r="I36">
-        <v>1.517877957415308</v>
+        <v>-1.471654195149185</v>
+      </c>
+      <c r="J36">
+        <v>-1.825512255183114</v>
+      </c>
+      <c r="K36">
+        <v>-1.677319185747749</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1816,25 +1825,34 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-0.06118356251440082</v>
       </c>
       <c r="C37">
-        <v>2.060000000000002</v>
+        <v>1.980280686728904</v>
       </c>
       <c r="D37">
-        <v>1.054714452089667</v>
+        <v>1.397689753518165</v>
       </c>
       <c r="E37">
-        <v>1.14000000000001</v>
+        <v>1.493367002374697</v>
       </c>
       <c r="F37">
-        <v>1.48000000000001</v>
+        <v>1.232944994313713</v>
       </c>
       <c r="G37">
-        <v>1.81000000000001</v>
+        <v>2.068402980147255</v>
       </c>
       <c r="H37">
-        <v>1.727877957415302</v>
+        <v>1.968380211050047</v>
+      </c>
+      <c r="I37">
+        <v>1.614522151016118</v>
+      </c>
+      <c r="J37">
+        <v>1.762715220451483</v>
+      </c>
+      <c r="K37">
+        <v>1.920148881959748</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1842,22 +1860,34 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>2.041464249243305</v>
       </c>
       <c r="C38">
-        <v>-1.005285547910336</v>
+        <v>1.458873316032566</v>
       </c>
       <c r="D38">
-        <v>-0.919999999999992</v>
+        <v>1.554550564889098</v>
       </c>
       <c r="E38">
-        <v>-0.5799999999999921</v>
+        <v>1.294128556828113</v>
       </c>
       <c r="F38">
-        <v>-0.2499999999999921</v>
+        <v>2.129586542661656</v>
       </c>
       <c r="G38">
-        <v>-0.3321220425847002</v>
+        <v>2.029563773564448</v>
+      </c>
+      <c r="H38">
+        <v>1.675705713530519</v>
+      </c>
+      <c r="I38">
+        <v>1.823898782965884</v>
+      </c>
+      <c r="J38">
+        <v>1.981332444474148</v>
+      </c>
+      <c r="K38">
+        <v>1.480676358197826</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1865,19 +1895,34 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>-0.5825909332107386</v>
       </c>
       <c r="C39">
-        <v>0.08528554791034348</v>
+        <v>-0.4869136843542065</v>
       </c>
       <c r="D39">
-        <v>0.4252855479103435</v>
+        <v>-0.7473356924151915</v>
       </c>
       <c r="E39">
-        <v>0.7552855479103435</v>
+        <v>0.08812229341835121</v>
       </c>
       <c r="F39">
-        <v>0.6731635053256353</v>
+        <v>-0.01190047567885699</v>
+      </c>
+      <c r="G39">
+        <v>-0.3657585357127857</v>
+      </c>
+      <c r="H39">
+        <v>-0.2175654662774206</v>
+      </c>
+      <c r="I39">
+        <v>-0.06013180476915631</v>
+      </c>
+      <c r="J39">
+        <v>-0.5607878910454785</v>
+      </c>
+      <c r="K39">
+        <v>-0.2804316037748719</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1885,16 +1930,34 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>0.09567724885653209</v>
       </c>
       <c r="C40">
-        <v>0.34</v>
+        <v>-0.1647447592044529</v>
       </c>
       <c r="D40">
-        <v>0.6699999999999999</v>
+        <v>0.6707132266290898</v>
       </c>
       <c r="E40">
-        <v>0.5878779574152918</v>
+        <v>0.5706904575318816</v>
+      </c>
+      <c r="F40">
+        <v>0.2168323974979529</v>
+      </c>
+      <c r="G40">
+        <v>0.365025466933318</v>
+      </c>
+      <c r="H40">
+        <v>0.5224591284415823</v>
+      </c>
+      <c r="I40">
+        <v>0.02180304216525999</v>
+      </c>
+      <c r="J40">
+        <v>0.3021593294358667</v>
+      </c>
+      <c r="K40">
+        <v>0.1301932178764815</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1902,13 +1965,34 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>-0.260422008060985</v>
       </c>
       <c r="C41">
-        <v>0.33</v>
+        <v>0.5750359777725577</v>
       </c>
       <c r="D41">
-        <v>0.2478779574152918</v>
+        <v>0.4750132086753495</v>
+      </c>
+      <c r="E41">
+        <v>0.1211551486414208</v>
+      </c>
+      <c r="F41">
+        <v>0.2693482180767859</v>
+      </c>
+      <c r="G41">
+        <v>0.4267818795850502</v>
+      </c>
+      <c r="H41">
+        <v>-0.07387420669127209</v>
+      </c>
+      <c r="I41">
+        <v>0.2064820805793346</v>
+      </c>
+      <c r="J41">
+        <v>0.0345159690199494</v>
+      </c>
+      <c r="K41">
+        <v>0.3402630873498395</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1916,10 +2000,34 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>0.8354579858335427</v>
       </c>
       <c r="C42">
-        <v>-0.08212204258470818</v>
+        <v>0.7354352167363345</v>
+      </c>
+      <c r="D42">
+        <v>0.3815771567024058</v>
+      </c>
+      <c r="E42">
+        <v>0.5297702261377709</v>
+      </c>
+      <c r="F42">
+        <v>0.6872038876460351</v>
+      </c>
+      <c r="G42">
+        <v>0.1865478013697129</v>
+      </c>
+      <c r="H42">
+        <v>0.4669040886403196</v>
+      </c>
+      <c r="I42">
+        <v>0.2949379770809344</v>
+      </c>
+      <c r="J42">
+        <v>0.6006850954108245</v>
+      </c>
+      <c r="K42">
+        <v>-0.01150507022163078</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1927,55 +2035,217 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>-0.1000227690972082</v>
+      </c>
+      <c r="C43">
+        <v>-0.4538808291311369</v>
+      </c>
+      <c r="D43">
+        <v>-0.3056877596957718</v>
+      </c>
+      <c r="E43">
+        <v>-0.1482540981875075</v>
+      </c>
+      <c r="F43">
+        <v>-0.6489101844638298</v>
+      </c>
+      <c r="G43">
+        <v>-0.3685538971932231</v>
+      </c>
+      <c r="H43">
+        <v>-0.5405200087526083</v>
+      </c>
+      <c r="I43">
+        <v>-0.2347728904227182</v>
+      </c>
+      <c r="J43">
+        <v>-0.8469630560551735</v>
+      </c>
+      <c r="K43">
+        <v>-0.1586268237156929</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="B44">
+        <v>-0.3538580600339287</v>
+      </c>
+      <c r="C44">
+        <v>-0.2056649905985636</v>
+      </c>
+      <c r="D44">
+        <v>-0.04823132909029931</v>
+      </c>
+      <c r="E44">
+        <v>-0.5488874153666216</v>
+      </c>
+      <c r="F44">
+        <v>-0.2685311280960149</v>
+      </c>
+      <c r="G44">
+        <v>-0.4404972396554001</v>
+      </c>
+      <c r="H44">
+        <v>-0.13475012132551</v>
+      </c>
+      <c r="I44">
+        <v>-0.7469402869579653</v>
+      </c>
+      <c r="J44">
+        <v>-0.05860405461848467</v>
+      </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="B45">
+        <v>0.1481930694353651</v>
+      </c>
+      <c r="C45">
+        <v>0.3056267309436294</v>
+      </c>
+      <c r="D45">
+        <v>-0.1950293553326929</v>
+      </c>
+      <c r="E45">
+        <v>0.08532693193791374</v>
+      </c>
+      <c r="F45">
+        <v>-0.08663917962147143</v>
+      </c>
+      <c r="G45">
+        <v>0.2191079387084187</v>
+      </c>
+      <c r="H45">
+        <v>-0.3930822269240366</v>
+      </c>
+      <c r="I45">
+        <v>0.295254005415444</v>
+      </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="B46">
+        <v>0.1574336615082643</v>
+      </c>
+      <c r="C46">
+        <v>-0.343222424768058</v>
+      </c>
+      <c r="D46">
+        <v>-0.06286613749745135</v>
+      </c>
+      <c r="E46">
+        <v>-0.2348322490568365</v>
+      </c>
+      <c r="F46">
+        <v>0.0709148692730536</v>
+      </c>
+      <c r="G46">
+        <v>-0.5412752963594016</v>
+      </c>
+      <c r="H46">
+        <v>0.1470609359800789</v>
+      </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="B47">
+        <v>-0.5006560862763223</v>
+      </c>
+      <c r="C47">
+        <v>-0.2202997990057156</v>
+      </c>
+      <c r="D47">
+        <v>-0.3922659105651008</v>
+      </c>
+      <c r="E47">
+        <v>-0.08651879223521067</v>
+      </c>
+      <c r="F47">
+        <v>-0.698708957867666</v>
+      </c>
+      <c r="G47">
+        <v>-0.01037272552818536</v>
+      </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
+      <c r="B48">
+        <v>0.2803562872706067</v>
+      </c>
+      <c r="C48">
+        <v>0.1083901757112215</v>
+      </c>
+      <c r="D48">
+        <v>0.4141372940411116</v>
+      </c>
+      <c r="E48">
+        <v>-0.1980528715913437</v>
+      </c>
+      <c r="F48">
+        <v>0.4902833607481369</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
+      <c r="B49">
+        <v>-0.1719661115593852</v>
+      </c>
+      <c r="C49">
+        <v>0.1337810067705049</v>
+      </c>
+      <c r="D49">
+        <v>-0.4784091588619503</v>
+      </c>
+      <c r="E49">
+        <v>0.2099270734775303</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
+      <c r="B50">
+        <v>0.3057471183298901</v>
+      </c>
+      <c r="C50">
+        <v>-0.3064430473025652</v>
+      </c>
+      <c r="D50">
+        <v>0.3818931850369154</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
+      <c r="B51">
+        <v>-0.6121901656324553</v>
+      </c>
+      <c r="C51">
+        <v>0.07614606670702531</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
+      <c r="B52">
+        <v>0.6883362323394806</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="1" t="s">
         <v>61</v>
       </c>

--- a/3_Component_Results/GDP/Data/naive_err/AVERAGE_1_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/GDP/Data/naive_err/AVERAGE_1_9_qoq_errors_first_eval.xlsx
@@ -614,21 +614,6 @@
       <c r="F2">
         <v>2.909537472365884</v>
       </c>
-      <c r="G2">
-        <v>4.484237271275873</v>
-      </c>
-      <c r="H2">
-        <v>0.2408662136045904</v>
-      </c>
-      <c r="I2">
-        <v>-0.0445653876890475</v>
-      </c>
-      <c r="J2">
-        <v>0.5028049249471138</v>
-      </c>
-      <c r="K2">
-        <v>0.5221204707982281</v>
-      </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
@@ -655,15 +640,6 @@
       <c r="H3">
         <v>1.347377732419616</v>
       </c>
-      <c r="I3">
-        <v>1.36669327827073</v>
-      </c>
-      <c r="J3">
-        <v>-0.7719551651613188</v>
-      </c>
-      <c r="K3">
-        <v>0.8280448348386811</v>
-      </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
@@ -684,21 +660,6 @@
       <c r="F4">
         <v>-0.7050767870934322</v>
       </c>
-      <c r="G4">
-        <v>-0.685761241242318</v>
-      </c>
-      <c r="H4">
-        <v>-2.824409684674367</v>
-      </c>
-      <c r="I4">
-        <v>-1.224409684674367</v>
-      </c>
-      <c r="J4">
-        <v>-0.8891739661806071</v>
-      </c>
-      <c r="K4">
-        <v>-2.024409684674367</v>
-      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
@@ -725,15 +686,6 @@
       <c r="H5">
         <v>-4.165529525415933</v>
       </c>
-      <c r="I5">
-        <v>-5.300765243909694</v>
-      </c>
-      <c r="J5">
-        <v>-4.100765243909694</v>
-      </c>
-      <c r="K5">
-        <v>-4.300765243909694</v>
-      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
@@ -754,21 +706,6 @@
       <c r="F6">
         <v>0.3632731335489865</v>
       </c>
-      <c r="G6">
-        <v>-0.7719625849447738</v>
-      </c>
-      <c r="H6">
-        <v>0.4280374150552262</v>
-      </c>
-      <c r="I6">
-        <v>0.2280374150552262</v>
-      </c>
-      <c r="J6">
-        <v>0.9099028108531542</v>
-      </c>
-      <c r="K6">
-        <v>0.2280374150552262</v>
-      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
@@ -795,15 +732,6 @@
       <c r="H7">
         <v>0.3432169523658785</v>
       </c>
-      <c r="I7">
-        <v>-0.3386484434320494</v>
-      </c>
-      <c r="J7">
-        <v>-0.1386484434320494</v>
-      </c>
-      <c r="K7">
-        <v>-0.0386484434320494</v>
-      </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
@@ -824,21 +752,6 @@
       <c r="F8">
         <v>0.8818653957979279</v>
       </c>
-      <c r="G8">
-        <v>0.2</v>
-      </c>
-      <c r="H8">
-        <v>0.4</v>
-      </c>
-      <c r="I8">
-        <v>0.4999999999999999</v>
-      </c>
-      <c r="J8">
-        <v>1.391318938475902</v>
-      </c>
-      <c r="K8">
-        <v>0.6367194630928423</v>
-      </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
@@ -865,15 +778,6 @@
       <c r="H9">
         <v>2.191318938475902</v>
       </c>
-      <c r="I9">
-        <v>1.436719463092842</v>
-      </c>
-      <c r="J9">
-        <v>0.8</v>
-      </c>
-      <c r="K9">
-        <v>1.2</v>
-      </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
@@ -894,21 +798,6 @@
       <c r="F10">
         <v>1.191318938475902</v>
       </c>
-      <c r="G10">
-        <v>0.4367194630928424</v>
-      </c>
-      <c r="H10">
-        <v>-0.2</v>
-      </c>
-      <c r="I10">
-        <v>0.2</v>
-      </c>
-      <c r="J10">
-        <v>0.1162417172787258</v>
-      </c>
-      <c r="K10">
-        <v>-0.3179240379891439</v>
-      </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
@@ -935,15 +824,6 @@
       <c r="H11">
         <v>0.1162417172787258</v>
       </c>
-      <c r="I11">
-        <v>-0.3179240379891439</v>
-      </c>
-      <c r="J11">
-        <v>0.5850941960705711</v>
-      </c>
-      <c r="K11">
-        <v>0.4337607274278525</v>
-      </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
@@ -964,21 +844,6 @@
       <c r="F12">
         <v>-0.1837582827212742</v>
       </c>
-      <c r="G12">
-        <v>-0.617924037989144</v>
-      </c>
-      <c r="H12">
-        <v>0.2850941960705711</v>
-      </c>
-      <c r="I12">
-        <v>0.1337607274278526</v>
-      </c>
-      <c r="J12">
-        <v>-0.499690853462215</v>
-      </c>
-      <c r="K12">
-        <v>-0.0723040558628753</v>
-      </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
@@ -1005,15 +870,6 @@
       <c r="H13">
         <v>-0.6364103165550574</v>
       </c>
-      <c r="I13">
-        <v>-0.2090235189557177</v>
-      </c>
-      <c r="J13">
-        <v>-0.3753623999320866</v>
-      </c>
-      <c r="K13">
-        <v>-0.2526440311233529</v>
-      </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
@@ -1034,21 +890,6 @@
       <c r="F14">
         <v>-0.3996908534622151</v>
       </c>
-      <c r="G14">
-        <v>0.02769594413712467</v>
-      </c>
-      <c r="H14">
-        <v>-0.1386429368392442</v>
-      </c>
-      <c r="I14">
-        <v>-0.01592456803051051</v>
-      </c>
-      <c r="J14">
-        <v>0.03130926821352198</v>
-      </c>
-      <c r="K14">
-        <v>-0.3653145667921905</v>
-      </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
@@ -1075,15 +916,6 @@
       <c r="H15">
         <v>0.549233306202666</v>
       </c>
-      <c r="I15">
-        <v>0.1526094711969535</v>
-      </c>
-      <c r="J15">
-        <v>0.4066700111064137</v>
-      </c>
-      <c r="K15">
-        <v>0.6267892745121628</v>
-      </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
@@ -1104,21 +936,6 @@
       <c r="F16">
         <v>-0.2024514592143306</v>
       </c>
-      <c r="G16">
-        <v>-0.599075294220043</v>
-      </c>
-      <c r="H16">
-        <v>-0.3450147543105828</v>
-      </c>
-      <c r="I16">
-        <v>-0.1248954909048337</v>
-      </c>
-      <c r="J16">
-        <v>-0.3514894367190494</v>
-      </c>
-      <c r="K16">
-        <v>-0.5396551693377063</v>
-      </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
@@ -1145,15 +962,6 @@
       <c r="H17">
         <v>-0.1454246534283215</v>
       </c>
-      <c r="I17">
-        <v>-0.3335903860469784</v>
-      </c>
-      <c r="J17">
-        <v>-0.3608983642673707</v>
-      </c>
-      <c r="K17">
-        <v>-0.5518676766958066</v>
-      </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
@@ -1186,9 +994,6 @@
       <c r="J18">
         <v>-0.291047344421429</v>
       </c>
-      <c r="K18">
-        <v>0.01864531357431082</v>
-      </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
@@ -1215,15 +1020,6 @@
       <c r="H19">
         <v>0.05834265434025099</v>
       </c>
-      <c r="I19">
-        <v>0.3680353123359908</v>
-      </c>
-      <c r="J19">
-        <v>0.2137307774179078</v>
-      </c>
-      <c r="K19">
-        <v>0.8653145667921904</v>
-      </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
@@ -1256,9 +1052,6 @@
       <c r="J20">
         <v>0.1738139612297402</v>
       </c>
-      <c r="K20">
-        <v>-0.2088652365230189</v>
-      </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
@@ -1285,15 +1078,6 @@
       <c r="H21">
         <v>0.5885736396626129</v>
       </c>
-      <c r="I21">
-        <v>0.2058944419098537</v>
-      </c>
-      <c r="J21">
-        <v>0.6805773620987878</v>
-      </c>
-      <c r="K21">
-        <v>0.5217333406898916</v>
-      </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
@@ -1326,9 +1110,6 @@
       <c r="J22">
         <v>0.79617990072353</v>
       </c>
-      <c r="K22">
-        <v>3.024171732558682</v>
-      </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
@@ -1358,12 +1139,6 @@
       <c r="I23">
         <v>0.5789800806167875</v>
       </c>
-      <c r="J23">
-        <v>2.80697191245194</v>
-      </c>
-      <c r="K23">
-        <v>10.29792742408026</v>
-      </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
@@ -1390,15 +1165,6 @@
       <c r="H24">
         <v>0.2692874226210477</v>
       </c>
-      <c r="I24">
-        <v>2.4972792544562</v>
-      </c>
-      <c r="J24">
-        <v>9.988234766084517</v>
-      </c>
-      <c r="K24">
-        <v>-8.183026219731815</v>
-      </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
@@ -1466,9 +1232,6 @@
       <c r="J26">
         <v>-0.54062844669036</v>
       </c>
-      <c r="K26">
-        <v>1.60694255667963</v>
-      </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
@@ -1498,12 +1261,6 @@
       <c r="I27">
         <v>-0.3233076444431192</v>
       </c>
-      <c r="J27">
-        <v>1.824263358926871</v>
-      </c>
-      <c r="K27">
-        <v>-1.615771047272361</v>
-      </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
@@ -1530,15 +1287,6 @@
       <c r="H28">
         <v>0.05937155330964</v>
       </c>
-      <c r="I28">
-        <v>2.20694255667963</v>
-      </c>
-      <c r="J28">
-        <v>-1.233091849519602</v>
-      </c>
-      <c r="K28">
-        <v>-1.294275412034003</v>
-      </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
@@ -1606,9 +1354,6 @@
       <c r="J30">
         <v>0.431349938429264</v>
       </c>
-      <c r="K30">
-        <v>-0.1512409947814746</v>
-      </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
@@ -1638,12 +1383,6 @@
       <c r="I31">
         <v>0.3751806690444539</v>
       </c>
-      <c r="J31">
-        <v>-0.2074102641662847</v>
-      </c>
-      <c r="K31">
-        <v>-0.1117330153097526</v>
-      </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
@@ -1670,15 +1409,6 @@
       <c r="H32">
         <v>-1.852811162790698</v>
       </c>
-      <c r="I32">
-        <v>-2.435402096001437</v>
-      </c>
-      <c r="J32">
-        <v>-2.339724847144905</v>
-      </c>
-      <c r="K32">
-        <v>-2.60014685520589</v>
-      </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
@@ -1746,9 +1476,6 @@
       <c r="J34">
         <v>8.915616604815668</v>
       </c>
-      <c r="K34">
-        <v>8.81559383571846</v>
-      </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
@@ -1778,12 +1505,6 @@
       <c r="I35">
         <v>0.7759395773180131</v>
       </c>
-      <c r="J35">
-        <v>0.6759168082208049</v>
-      </c>
-      <c r="K35">
-        <v>0.3220587481868762</v>
-      </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
@@ -1810,15 +1531,6 @@
       <c r="H36">
         <v>-1.371631426051977</v>
       </c>
-      <c r="I36">
-        <v>-1.471654195149185</v>
-      </c>
-      <c r="J36">
-        <v>-1.825512255183114</v>
-      </c>
-      <c r="K36">
-        <v>-1.677319185747749</v>
-      </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
@@ -1886,9 +1598,6 @@
       <c r="J38">
         <v>1.981332444474148</v>
       </c>
-      <c r="K38">
-        <v>1.480676358197826</v>
-      </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
@@ -1918,12 +1627,6 @@
       <c r="I39">
         <v>-0.06013180476915631</v>
       </c>
-      <c r="J39">
-        <v>-0.5607878910454785</v>
-      </c>
-      <c r="K39">
-        <v>-0.2804316037748719</v>
-      </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
@@ -1950,15 +1653,6 @@
       <c r="H40">
         <v>0.5224591284415823</v>
       </c>
-      <c r="I40">
-        <v>0.02180304216525999</v>
-      </c>
-      <c r="J40">
-        <v>0.3021593294358667</v>
-      </c>
-      <c r="K40">
-        <v>0.1301932178764815</v>
-      </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
@@ -2026,9 +1720,6 @@
       <c r="J42">
         <v>0.6006850954108245</v>
       </c>
-      <c r="K42">
-        <v>-0.01150507022163078</v>
-      </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
@@ -2058,12 +1749,6 @@
       <c r="I43">
         <v>-0.2347728904227182</v>
       </c>
-      <c r="J43">
-        <v>-0.8469630560551735</v>
-      </c>
-      <c r="K43">
-        <v>-0.1586268237156929</v>
-      </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
@@ -2089,12 +1774,6 @@
       </c>
       <c r="H44">
         <v>-0.13475012132551</v>
-      </c>
-      <c r="I44">
-        <v>-0.7469402869579653</v>
-      </c>
-      <c r="J44">
-        <v>-0.05860405461848467</v>
       </c>
     </row>
     <row r="45" spans="1:11">
